--- a/Dataset/data.xlsx
+++ b/Dataset/data.xlsx
@@ -415,7 +415,7 @@
         <v>31667.5</v>
       </c>
       <c r="C2">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D2">
         <v>1174.19999433</v>
@@ -429,7 +429,7 @@
         <v>31667.5</v>
       </c>
       <c r="C3">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D3">
         <v>1174.19999433</v>
@@ -443,7 +443,7 @@
         <v>31667.5</v>
       </c>
       <c r="C4">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D4">
         <v>1174.19999433</v>
@@ -457,7 +457,7 @@
         <v>32717</v>
       </c>
       <c r="C5">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D5">
         <v>1174.19999433</v>
@@ -471,7 +471,7 @@
         <v>32417</v>
       </c>
       <c r="C6">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D6">
         <v>1174.19999433</v>
@@ -485,7 +485,7 @@
         <v>32317</v>
       </c>
       <c r="C7">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D7">
         <v>1174.19999433</v>
@@ -499,7 +499,7 @@
         <v>32117</v>
       </c>
       <c r="C8">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D8">
         <v>1174.19999433</v>
@@ -513,7 +513,7 @@
         <v>31817</v>
       </c>
       <c r="C9">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D9">
         <v>1174.19999433</v>
@@ -527,7 +527,7 @@
         <v>31817</v>
       </c>
       <c r="C10">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D10">
         <v>1174.19999433</v>
@@ -541,7 +541,7 @@
         <v>31817</v>
       </c>
       <c r="C11">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D11">
         <v>1174.19999433</v>
@@ -555,7 +555,7 @@
         <v>31517</v>
       </c>
       <c r="C12">
-        <v>12640</v>
+        <v>11120</v>
       </c>
       <c r="D12">
         <v>1174.19999433</v>
@@ -569,7 +569,7 @@
         <v>31417</v>
       </c>
       <c r="C13">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D13">
         <v>1174.19999433</v>
@@ -583,7 +583,7 @@
         <v>31217</v>
       </c>
       <c r="C14">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D14">
         <v>1174.19999433</v>
@@ -597,7 +597,7 @@
         <v>31817</v>
       </c>
       <c r="C15">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D15">
         <v>1174.19999433</v>
@@ -611,7 +611,7 @@
         <v>31717</v>
       </c>
       <c r="C16">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D16">
         <v>1174.19999433</v>
@@ -625,7 +625,7 @@
         <v>31717</v>
       </c>
       <c r="C17">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D17">
         <v>1174.19999433</v>
@@ -639,7 +639,7 @@
         <v>31717</v>
       </c>
       <c r="C18">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D18">
         <v>1174.19999433</v>
@@ -653,7 +653,7 @@
         <v>32017</v>
       </c>
       <c r="C19">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D19">
         <v>1174.19999433</v>
@@ -667,7 +667,7 @@
         <v>31617</v>
       </c>
       <c r="C20">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D20">
         <v>1174.19999433</v>
@@ -681,7 +681,7 @@
         <v>31717</v>
       </c>
       <c r="C21">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D21">
         <v>1174.19999433</v>
@@ -695,7 +695,7 @@
         <v>31617</v>
       </c>
       <c r="C22">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D22">
         <v>1174.19999433</v>
@@ -709,7 +709,7 @@
         <v>31333.5</v>
       </c>
       <c r="C23">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D23">
         <v>1174.19999433</v>
@@ -723,7 +723,7 @@
         <v>31333.5</v>
       </c>
       <c r="C24">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D24">
         <v>1174.19999433</v>
@@ -737,7 +737,7 @@
         <v>31333.5</v>
       </c>
       <c r="C25">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D25">
         <v>1174.19999433</v>
@@ -751,7 +751,7 @@
         <v>31117</v>
       </c>
       <c r="C26">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D26">
         <v>1174.19999433</v>
@@ -765,7 +765,7 @@
         <v>31117</v>
       </c>
       <c r="C27">
-        <v>13040</v>
+        <v>11120</v>
       </c>
       <c r="D27">
         <v>1174.19999433</v>
@@ -779,7 +779,7 @@
         <v>31317</v>
       </c>
       <c r="C28">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D28">
         <v>1174.19999433</v>
@@ -793,7 +793,7 @@
         <v>31317</v>
       </c>
       <c r="C29">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D29">
         <v>1174.19999433</v>
@@ -807,7 +807,7 @@
         <v>31117</v>
       </c>
       <c r="C30">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D30">
         <v>1174.19999433</v>
@@ -821,7 +821,7 @@
         <v>31117</v>
       </c>
       <c r="C31">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D31">
         <v>1174.19999433</v>
@@ -835,7 +835,7 @@
         <v>31117</v>
       </c>
       <c r="C32">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D32">
         <v>1174.19999433</v>
@@ -849,7 +849,7 @@
         <v>31459</v>
       </c>
       <c r="C33">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D33">
         <v>1174.19999433</v>
@@ -863,7 +863,7 @@
         <v>31517</v>
       </c>
       <c r="C34">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D34">
         <v>1174.19999433</v>
@@ -877,7 +877,7 @@
         <v>31067</v>
       </c>
       <c r="C35">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D35">
         <v>1174.19999433</v>
@@ -891,7 +891,7 @@
         <v>31267</v>
       </c>
       <c r="C36">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D36">
         <v>1174.19999433</v>
@@ -905,7 +905,7 @@
         <v>31417</v>
       </c>
       <c r="C37">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D37">
         <v>1174.19999433</v>
@@ -919,7 +919,7 @@
         <v>31417</v>
       </c>
       <c r="C38">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D38">
         <v>1174.19999433</v>
@@ -933,7 +933,7 @@
         <v>31417</v>
       </c>
       <c r="C39">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D39">
         <v>1174.19999433</v>
@@ -947,7 +947,7 @@
         <v>31417</v>
       </c>
       <c r="C40">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D40">
         <v>1174.19999433</v>
@@ -961,7 +961,7 @@
         <v>31617</v>
       </c>
       <c r="C41">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D41">
         <v>1174.19999433</v>
@@ -975,7 +975,7 @@
         <v>31717</v>
       </c>
       <c r="C42">
-        <v>13040</v>
+        <v>11210</v>
       </c>
       <c r="D42">
         <v>1174.19999433</v>
@@ -989,7 +989,7 @@
         <v>31517</v>
       </c>
       <c r="C43">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D43">
         <v>1174.19999433</v>
@@ -1003,7 +1003,7 @@
         <v>31633.5</v>
       </c>
       <c r="C44">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D44">
         <v>1174.19999433</v>
@@ -1017,7 +1017,7 @@
         <v>31633.5</v>
       </c>
       <c r="C45">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D45">
         <v>1174.19999433</v>
@@ -1031,7 +1031,7 @@
         <v>31633.5</v>
       </c>
       <c r="C46">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D46">
         <v>1174.19999433</v>
@@ -1045,7 +1045,7 @@
         <v>31633.5</v>
       </c>
       <c r="C47">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D47">
         <v>1174.19999433</v>
@@ -1059,7 +1059,7 @@
         <v>31400</v>
       </c>
       <c r="C48">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D48">
         <v>1174.19999433</v>
@@ -1073,7 +1073,7 @@
         <v>31367</v>
       </c>
       <c r="C49">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D49">
         <v>1174.19999433</v>
@@ -1087,7 +1087,7 @@
         <v>31567</v>
       </c>
       <c r="C50">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D50">
         <v>1174.19999433</v>
@@ -1101,7 +1101,7 @@
         <v>31667</v>
       </c>
       <c r="C51">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D51">
         <v>1174.19999433</v>
@@ -1115,7 +1115,7 @@
         <v>31667</v>
       </c>
       <c r="C52">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D52">
         <v>1174.19999433</v>
@@ -1129,7 +1129,7 @@
         <v>31667</v>
       </c>
       <c r="C53">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D53">
         <v>1174.19999433</v>
@@ -1143,7 +1143,7 @@
         <v>31567</v>
       </c>
       <c r="C54">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D54">
         <v>1174.19999433</v>
@@ -1157,7 +1157,7 @@
         <v>32267</v>
       </c>
       <c r="C55">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D55">
         <v>1174.19999433</v>
@@ -1171,7 +1171,7 @@
         <v>32667</v>
       </c>
       <c r="C56">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D56">
         <v>1174.19999433</v>
@@ -1185,7 +1185,7 @@
         <v>32667</v>
       </c>
       <c r="C57">
-        <v>13840</v>
+        <v>10830</v>
       </c>
       <c r="D57">
         <v>1174.19999433</v>
@@ -1199,7 +1199,7 @@
         <v>32767</v>
       </c>
       <c r="C58">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D58">
         <v>1174.19999433</v>
@@ -1213,7 +1213,7 @@
         <v>32767</v>
       </c>
       <c r="C59">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D59">
         <v>1174.19999433</v>
@@ -1227,7 +1227,7 @@
         <v>32767</v>
       </c>
       <c r="C60">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D60">
         <v>1174.19999433</v>
@@ -1241,7 +1241,7 @@
         <v>32388.75</v>
       </c>
       <c r="C61">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D61">
         <v>1174.19999433</v>
@@ -1255,7 +1255,7 @@
         <v>32575</v>
       </c>
       <c r="C62">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D62">
         <v>1174.19999433</v>
@@ -1269,7 +1269,7 @@
         <v>32475</v>
       </c>
       <c r="C63">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D63">
         <v>1174.19999433</v>
@@ -1283,7 +1283,7 @@
         <v>32375</v>
       </c>
       <c r="C64">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D64">
         <v>1174.19999433</v>
@@ -1297,7 +1297,7 @@
         <v>32275</v>
       </c>
       <c r="C65">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D65">
         <v>1174.19999433</v>
@@ -1311,7 +1311,7 @@
         <v>32275</v>
       </c>
       <c r="C66">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D66">
         <v>1174.19999433</v>
@@ -1325,7 +1325,7 @@
         <v>32275</v>
       </c>
       <c r="C67">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D67">
         <v>1174.19999433</v>
@@ -1339,7 +1339,7 @@
         <v>32075</v>
       </c>
       <c r="C68">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D68">
         <v>1174.19999433</v>
@@ -1353,7 +1353,7 @@
         <v>31725</v>
       </c>
       <c r="C69">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D69">
         <v>1174.19999433</v>
@@ -1367,7 +1367,7 @@
         <v>32350</v>
       </c>
       <c r="C70">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D70">
         <v>1174.19999433</v>
@@ -1381,7 +1381,7 @@
         <v>32425</v>
       </c>
       <c r="C71">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D71">
         <v>1174.19999433</v>
@@ -1395,7 +1395,7 @@
         <v>32525</v>
       </c>
       <c r="C72">
-        <v>14400</v>
+        <v>11430</v>
       </c>
       <c r="D72">
         <v>1174.19999433</v>
@@ -1409,7 +1409,7 @@
         <v>32525</v>
       </c>
       <c r="C73">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D73">
         <v>1174.19999433</v>
@@ -1423,7 +1423,7 @@
         <v>32525</v>
       </c>
       <c r="C74">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D74">
         <v>1174.19999433</v>
@@ -1437,7 +1437,7 @@
         <v>32266.5</v>
       </c>
       <c r="C75">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D75">
         <v>1174.19999433</v>
@@ -1451,7 +1451,7 @@
         <v>32133.5</v>
       </c>
       <c r="C76">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D76">
         <v>1174.19999433</v>
@@ -1465,7 +1465,7 @@
         <v>32483.5</v>
       </c>
       <c r="C77">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D77">
         <v>1174.19999433</v>
@@ -1479,7 +1479,7 @@
         <v>32583.5</v>
       </c>
       <c r="C78">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D78">
         <v>1174.19999433</v>
@@ -1493,7 +1493,7 @@
         <v>32083.5</v>
       </c>
       <c r="C79">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D79">
         <v>1174.19999433</v>
@@ -1507,7 +1507,7 @@
         <v>32083.5</v>
       </c>
       <c r="C80">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D80">
         <v>1174.19999433</v>
@@ -1521,7 +1521,7 @@
         <v>32083.5</v>
       </c>
       <c r="C81">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D81">
         <v>1174.19999433</v>
@@ -1535,7 +1535,7 @@
         <v>31567</v>
       </c>
       <c r="C82">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D82">
         <v>1174.19999433</v>
@@ -1549,7 +1549,7 @@
         <v>31767</v>
       </c>
       <c r="C83">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D83">
         <v>1174.19999433</v>
@@ -1563,7 +1563,7 @@
         <v>31467</v>
       </c>
       <c r="C84">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D84">
         <v>1174.19999433</v>
@@ -1577,7 +1577,7 @@
         <v>31267</v>
       </c>
       <c r="C85">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D85">
         <v>1174.19999433</v>
@@ -1591,7 +1591,7 @@
         <v>31267</v>
       </c>
       <c r="C86">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D86">
         <v>1174.19999433</v>
@@ -1605,7 +1605,7 @@
         <v>31267</v>
       </c>
       <c r="C87">
-        <v>14240</v>
+        <v>11890</v>
       </c>
       <c r="D87">
         <v>1174.19999433</v>
@@ -1619,7 +1619,7 @@
         <v>31267</v>
       </c>
       <c r="C88">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D88">
         <v>1174.19999433</v>
@@ -1633,7 +1633,7 @@
         <v>32267</v>
       </c>
       <c r="C89">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D89">
         <v>1174.19999433</v>
@@ -1647,7 +1647,7 @@
         <v>31917</v>
       </c>
       <c r="C90">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D90">
         <v>1174.19999433</v>
@@ -1661,7 +1661,7 @@
         <v>31817</v>
       </c>
       <c r="C91">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D91">
         <v>1174.19999433</v>
@@ -1675,7 +1675,7 @@
         <v>32081.5</v>
       </c>
       <c r="C92">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D92">
         <v>1174.19999433</v>
@@ -1689,7 +1689,7 @@
         <v>31617</v>
       </c>
       <c r="C93">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D93">
         <v>1174.19999433</v>
@@ -1703,7 +1703,7 @@
         <v>31617</v>
       </c>
       <c r="C94">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D94">
         <v>1174.19999433</v>
@@ -1717,7 +1717,7 @@
         <v>31617</v>
       </c>
       <c r="C95">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D95">
         <v>1174.19999433</v>
@@ -1731,7 +1731,7 @@
         <v>31717</v>
       </c>
       <c r="C96">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D96">
         <v>1174.19999433</v>
@@ -1745,7 +1745,7 @@
         <v>31717</v>
       </c>
       <c r="C97">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D97">
         <v>1174.19999433</v>
@@ -1759,7 +1759,7 @@
         <v>31817</v>
       </c>
       <c r="C98">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D98">
         <v>1174.19999433</v>
@@ -1773,7 +1773,7 @@
         <v>31717</v>
       </c>
       <c r="C99">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D99">
         <v>1174.19999433</v>
@@ -1787,7 +1787,7 @@
         <v>32117</v>
       </c>
       <c r="C100">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D100">
         <v>1174.19999433</v>
@@ -1801,7 +1801,7 @@
         <v>32117</v>
       </c>
       <c r="C101">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D101">
         <v>1174.19999433</v>
@@ -1815,7 +1815,7 @@
         <v>32117</v>
       </c>
       <c r="C102">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D102">
         <v>1174.19999433</v>
@@ -1829,7 +1829,7 @@
         <v>32017</v>
       </c>
       <c r="C103">
-        <v>14140</v>
+        <v>12370</v>
       </c>
       <c r="D103">
         <v>1174.19999433</v>
@@ -1843,7 +1843,7 @@
         <v>32117</v>
       </c>
       <c r="C104">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D104">
         <v>1174.19999433</v>
@@ -1857,7 +1857,7 @@
         <v>32117</v>
       </c>
       <c r="C105">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D105">
         <v>1174.19999433</v>
@@ -1871,7 +1871,7 @@
         <v>32517</v>
       </c>
       <c r="C106">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D106">
         <v>1174.19999433</v>
@@ -1885,7 +1885,7 @@
         <v>32417</v>
       </c>
       <c r="C107">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D107">
         <v>1174.19999433</v>
@@ -1899,7 +1899,7 @@
         <v>32417</v>
       </c>
       <c r="C108">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D108">
         <v>1174.19999433</v>
@@ -1913,7 +1913,7 @@
         <v>32417</v>
       </c>
       <c r="C109">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D109">
         <v>1174.19999433</v>
@@ -1927,7 +1927,7 @@
         <v>32217</v>
       </c>
       <c r="C110">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D110">
         <v>1174.19999433</v>
@@ -1941,7 +1941,7 @@
         <v>32317</v>
       </c>
       <c r="C111">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D111">
         <v>1174.19999433</v>
@@ -1955,7 +1955,7 @@
         <v>32617</v>
       </c>
       <c r="C112">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D112">
         <v>1174.19999433</v>
@@ -1969,7 +1969,7 @@
         <v>32517</v>
       </c>
       <c r="C113">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D113">
         <v>1174.19999433</v>
@@ -1983,7 +1983,7 @@
         <v>32517</v>
       </c>
       <c r="C114">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D114">
         <v>1174.19999433</v>
@@ -1997,7 +1997,7 @@
         <v>32517</v>
       </c>
       <c r="C115">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D115">
         <v>1174.19999433</v>
@@ -2011,7 +2011,7 @@
         <v>32517</v>
       </c>
       <c r="C116">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D116">
         <v>1174.19999433</v>
@@ -2025,7 +2025,7 @@
         <v>32617</v>
       </c>
       <c r="C117">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D117">
         <v>1174.19999433</v>
@@ -2039,7 +2039,7 @@
         <v>32917</v>
       </c>
       <c r="C118">
-        <v>14320</v>
+        <v>12640</v>
       </c>
       <c r="D118">
         <v>1174.19999433</v>
@@ -2053,7 +2053,7 @@
         <v>33117</v>
       </c>
       <c r="C119">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D119">
         <v>1174.19999433</v>
@@ -2067,7 +2067,7 @@
         <v>33117</v>
       </c>
       <c r="C120">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D120">
         <v>1174.19999433</v>
@@ -2081,7 +2081,7 @@
         <v>32817</v>
       </c>
       <c r="C121">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D121">
         <v>1174.19999433</v>
@@ -2095,7 +2095,7 @@
         <v>32813</v>
       </c>
       <c r="C122">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D122">
         <v>1174.19999433</v>
@@ -2109,7 +2109,7 @@
         <v>32813</v>
       </c>
       <c r="C123">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D123">
         <v>1174.19999433</v>
@@ -2123,7 +2123,7 @@
         <v>32900</v>
       </c>
       <c r="C124">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D124">
         <v>1174.19999433</v>
@@ -2137,7 +2137,7 @@
         <v>32817</v>
       </c>
       <c r="C125">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D125">
         <v>1174.19999433</v>
@@ -2151,7 +2151,7 @@
         <v>33117</v>
       </c>
       <c r="C126">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D126">
         <v>1174.19999433</v>
@@ -2165,7 +2165,7 @@
         <v>33817</v>
       </c>
       <c r="C127">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D127">
         <v>1174.19999433</v>
@@ -2179,7 +2179,7 @@
         <v>33867</v>
       </c>
       <c r="C128">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D128">
         <v>1174.19999433</v>
@@ -2193,7 +2193,7 @@
         <v>33867</v>
       </c>
       <c r="C129">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D129">
         <v>1174.19999433</v>
@@ -2207,7 +2207,7 @@
         <v>33867</v>
       </c>
       <c r="C130">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D130">
         <v>1174.19999433</v>
@@ -2221,7 +2221,7 @@
         <v>33067</v>
       </c>
       <c r="C131">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D131">
         <v>1174.19999433</v>
@@ -2235,7 +2235,7 @@
         <v>32667</v>
       </c>
       <c r="C132">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D132">
         <v>1174.19999433</v>
@@ -2249,7 +2249,7 @@
         <v>32967</v>
       </c>
       <c r="C133">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D133">
         <v>1174.19999433</v>
@@ -2263,7 +2263,7 @@
         <v>32567</v>
       </c>
       <c r="C134">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D134">
         <v>1174.19999433</v>
@@ -2277,7 +2277,7 @@
         <v>32267</v>
       </c>
       <c r="C135">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D135">
         <v>1174.19999433</v>
@@ -2291,7 +2291,7 @@
         <v>32267</v>
       </c>
       <c r="C136">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D136">
         <v>1174.19999433</v>
@@ -2305,7 +2305,7 @@
         <v>32267</v>
       </c>
       <c r="C137">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D137">
         <v>1174.19999433</v>
@@ -2319,7 +2319,7 @@
         <v>31967</v>
       </c>
       <c r="C138">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D138">
         <v>1174.19999433</v>
@@ -2333,7 +2333,7 @@
         <v>31967</v>
       </c>
       <c r="C139">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D139">
         <v>1174.19999433</v>
@@ -2347,7 +2347,7 @@
         <v>32667</v>
       </c>
       <c r="C140">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D140">
         <v>1174.19999433</v>
@@ -2361,7 +2361,7 @@
         <v>32267</v>
       </c>
       <c r="C141">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D141">
         <v>1174.19999433</v>
@@ -2375,7 +2375,7 @@
         <v>32267</v>
       </c>
       <c r="C142">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D142">
         <v>1174.19999433</v>
@@ -2389,7 +2389,7 @@
         <v>32267</v>
       </c>
       <c r="C143">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D143">
         <v>1174.19999433</v>
@@ -2403,7 +2403,7 @@
         <v>32267</v>
       </c>
       <c r="C144">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D144">
         <v>1174.19999433</v>
@@ -2417,7 +2417,7 @@
         <v>32367</v>
       </c>
       <c r="C145">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D145">
         <v>1174.19999433</v>
@@ -2431,7 +2431,7 @@
         <v>32467</v>
       </c>
       <c r="C146">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D146">
         <v>1174.19999433</v>
@@ -2445,7 +2445,7 @@
         <v>32667</v>
       </c>
       <c r="C147">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D147">
         <v>1174.19999433</v>
@@ -2459,7 +2459,7 @@
         <v>33083.5</v>
       </c>
       <c r="C148">
-        <v>14770</v>
+        <v>13040</v>
       </c>
       <c r="D148">
         <v>1174.19999433</v>
@@ -2473,7 +2473,7 @@
         <v>33383.5</v>
       </c>
       <c r="C149">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D149">
         <v>1174.19999433</v>
@@ -2487,7 +2487,7 @@
         <v>33383.5</v>
       </c>
       <c r="C150">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D150">
         <v>1174.19999433</v>
@@ -2501,7 +2501,7 @@
         <v>33383.5</v>
       </c>
       <c r="C151">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D151">
         <v>1174.19999433</v>
@@ -2515,7 +2515,7 @@
         <v>33917</v>
       </c>
       <c r="C152">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D152">
         <v>1174.19999433</v>
@@ -2529,7 +2529,7 @@
         <v>34049.25</v>
       </c>
       <c r="C153">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D153">
         <v>1174.19999433</v>
@@ -2543,7 +2543,7 @@
         <v>34267</v>
       </c>
       <c r="C154">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D154">
         <v>1174.19999433</v>
@@ -2557,7 +2557,7 @@
         <v>34067</v>
       </c>
       <c r="C155">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D155">
         <v>1174.19999433</v>
@@ -2571,7 +2571,7 @@
         <v>34383.5</v>
       </c>
       <c r="C156">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D156">
         <v>1174.19999433</v>
@@ -2585,7 +2585,7 @@
         <v>34383.5</v>
       </c>
       <c r="C157">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D157">
         <v>1174.19999433</v>
@@ -2599,7 +2599,7 @@
         <v>34383.5</v>
       </c>
       <c r="C158">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D158">
         <v>1174.19999433</v>
@@ -2613,7 +2613,7 @@
         <v>33867</v>
       </c>
       <c r="C159">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D159">
         <v>1174.19999433</v>
@@ -2627,7 +2627,7 @@
         <v>33967</v>
       </c>
       <c r="C160">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D160">
         <v>1174.19999433</v>
@@ -2641,7 +2641,7 @@
         <v>33467</v>
       </c>
       <c r="C161">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D161">
         <v>1174.19999433</v>
@@ -2655,7 +2655,7 @@
         <v>33267</v>
       </c>
       <c r="C162">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D162">
         <v>1174.19999433</v>
@@ -2669,7 +2669,7 @@
         <v>33267</v>
       </c>
       <c r="C163">
-        <v>15440</v>
+        <v>13840</v>
       </c>
       <c r="D163">
         <v>1174.19999433</v>
@@ -2683,7 +2683,7 @@
         <v>33267</v>
       </c>
       <c r="C164">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D164">
         <v>1174.19999433</v>
@@ -2697,7 +2697,7 @@
         <v>33267</v>
       </c>
       <c r="C165">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D165">
         <v>1174.19999433</v>
@@ -2711,7 +2711,7 @@
         <v>33367</v>
       </c>
       <c r="C166">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D166">
         <v>1174.19999433</v>
@@ -2725,7 +2725,7 @@
         <v>33067</v>
       </c>
       <c r="C167">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D167">
         <v>1174.19999433</v>
@@ -2739,7 +2739,7 @@
         <v>33167</v>
       </c>
       <c r="C168">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D168">
         <v>1174.19999433</v>
@@ -2753,7 +2753,7 @@
         <v>33667</v>
       </c>
       <c r="C169">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D169">
         <v>1174.19999433</v>
@@ -2767,7 +2767,7 @@
         <v>33167</v>
       </c>
       <c r="C170">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D170">
         <v>1174.19999433</v>
@@ -2781,7 +2781,7 @@
         <v>33167</v>
       </c>
       <c r="C171">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D171">
         <v>1174.19999433</v>
@@ -2795,7 +2795,7 @@
         <v>33167</v>
       </c>
       <c r="C172">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D172">
         <v>1174.19999433</v>
@@ -2809,7 +2809,7 @@
         <v>34167</v>
       </c>
       <c r="C173">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D173">
         <v>1174.19999433</v>
@@ -2823,7 +2823,7 @@
         <v>34267</v>
       </c>
       <c r="C174">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D174">
         <v>1174.19999433</v>
@@ -2837,7 +2837,7 @@
         <v>33967</v>
       </c>
       <c r="C175">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D175">
         <v>1174.19999433</v>
@@ -2851,7 +2851,7 @@
         <v>34367</v>
       </c>
       <c r="C176">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D176">
         <v>1174.19999433</v>
@@ -2865,7 +2865,7 @@
         <v>34767</v>
       </c>
       <c r="C177">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D177">
         <v>1174.19999433</v>
@@ -2879,7 +2879,7 @@
         <v>34767</v>
       </c>
       <c r="C178">
-        <v>16110</v>
+        <v>14400</v>
       </c>
       <c r="D178">
         <v>1174.19999433</v>
@@ -2893,7 +2893,7 @@
         <v>34767</v>
       </c>
       <c r="C179">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D179">
         <v>1174.19999433</v>
@@ -2907,7 +2907,7 @@
         <v>35267</v>
       </c>
       <c r="C180">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D180">
         <v>1174.19999433</v>
@@ -2921,7 +2921,7 @@
         <v>35767</v>
       </c>
       <c r="C181">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D181">
         <v>1174.19999433</v>
@@ -2935,7 +2935,7 @@
         <v>35067</v>
       </c>
       <c r="C182">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D182">
         <v>1174.19999433</v>
@@ -2949,7 +2949,7 @@
         <v>35905</v>
       </c>
       <c r="C183">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D183">
         <v>1174.19999433</v>
@@ -2963,7 +2963,7 @@
         <v>35583.5</v>
       </c>
       <c r="C184">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D184">
         <v>1174.19999433</v>
@@ -2977,7 +2977,7 @@
         <v>35583.5</v>
       </c>
       <c r="C185">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D185">
         <v>1174.19999433</v>
@@ -2991,7 +2991,7 @@
         <v>35583.5</v>
       </c>
       <c r="C186">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D186">
         <v>1174.19999433</v>
@@ -3005,7 +3005,7 @@
         <v>35567</v>
       </c>
       <c r="C187">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D187">
         <v>1174.19999433</v>
@@ -3019,7 +3019,7 @@
         <v>35167</v>
       </c>
       <c r="C188">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D188">
         <v>1174.19999433</v>
@@ -3033,7 +3033,7 @@
         <v>35067</v>
       </c>
       <c r="C189">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D189">
         <v>1174.19999433</v>
@@ -3047,7 +3047,7 @@
         <v>35467</v>
       </c>
       <c r="C190">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D190">
         <v>1174.19999433</v>
@@ -3061,7 +3061,7 @@
         <v>35567</v>
       </c>
       <c r="C191">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D191">
         <v>1174.19999433</v>
@@ -3075,7 +3075,7 @@
         <v>35567</v>
       </c>
       <c r="C192">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D192">
         <v>1174.19999433</v>
@@ -3089,7 +3089,7 @@
         <v>35567</v>
       </c>
       <c r="C193">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D193">
         <v>1174.19999433</v>
@@ -3103,7 +3103,7 @@
         <v>35867</v>
       </c>
       <c r="C194">
-        <v>16530</v>
+        <v>14240</v>
       </c>
       <c r="D194">
         <v>1174.19999433</v>
@@ -3117,7 +3117,7 @@
         <v>35867</v>
       </c>
       <c r="C195">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D195">
         <v>1174.19999433</v>
@@ -3131,7 +3131,7 @@
         <v>35367</v>
       </c>
       <c r="C196">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D196">
         <v>1174.19999433</v>
@@ -3145,7 +3145,7 @@
         <v>35867</v>
       </c>
       <c r="C197">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D197">
         <v>1174.19999433</v>
@@ -3159,7 +3159,7 @@
         <v>35767</v>
       </c>
       <c r="C198">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D198">
         <v>1174.19999433</v>
@@ -3173,7 +3173,7 @@
         <v>35767</v>
       </c>
       <c r="C199">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D199">
         <v>1174.19999433</v>
@@ -3187,7 +3187,7 @@
         <v>35767</v>
       </c>
       <c r="C200">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D200">
         <v>1174.19999433</v>
@@ -3201,7 +3201,7 @@
         <v>35867</v>
       </c>
       <c r="C201">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D201">
         <v>1174.19999433</v>
@@ -3215,7 +3215,7 @@
         <v>35467</v>
       </c>
       <c r="C202">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D202">
         <v>1174.19999433</v>
@@ -3229,7 +3229,7 @@
         <v>35750</v>
       </c>
       <c r="C203">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D203">
         <v>1174.19999433</v>
@@ -3243,7 +3243,7 @@
         <v>36167</v>
       </c>
       <c r="C204">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D204">
         <v>1174.19999433</v>
@@ -3257,7 +3257,7 @@
         <v>37067</v>
       </c>
       <c r="C205">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D205">
         <v>1174.19999433</v>
@@ -3271,7 +3271,7 @@
         <v>37067</v>
       </c>
       <c r="C206">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D206">
         <v>1174.19999433</v>
@@ -3285,7 +3285,7 @@
         <v>37067</v>
       </c>
       <c r="C207">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D207">
         <v>1174.19999433</v>
@@ -3299,7 +3299,7 @@
         <v>37367</v>
       </c>
       <c r="C208">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D208">
         <v>1174.19999433</v>
@@ -3313,7 +3313,7 @@
         <v>38067</v>
       </c>
       <c r="C209">
-        <v>16370</v>
+        <v>14140</v>
       </c>
       <c r="D209">
         <v>1174.19999433</v>
@@ -3327,7 +3327,7 @@
         <v>37567</v>
       </c>
       <c r="C210">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D210">
         <v>1174.19999433</v>
@@ -3341,7 +3341,7 @@
         <v>37567</v>
       </c>
       <c r="C211">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D211">
         <v>1174.19999433</v>
@@ -3355,7 +3355,7 @@
         <v>37067</v>
       </c>
       <c r="C212">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D212">
         <v>1174.19999433</v>
@@ -3369,7 +3369,7 @@
         <v>37067</v>
       </c>
       <c r="C213">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D213">
         <v>1174.19999433</v>
@@ -3383,7 +3383,7 @@
         <v>37656.5</v>
       </c>
       <c r="C214">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D214">
         <v>1174.19999433</v>
@@ -3397,7 +3397,7 @@
         <v>36267</v>
       </c>
       <c r="C215">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D215">
         <v>1174.19999433</v>
@@ -3411,7 +3411,7 @@
         <v>36167</v>
       </c>
       <c r="C216">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D216">
         <v>1174.19999433</v>
@@ -3425,7 +3425,7 @@
         <v>36567</v>
       </c>
       <c r="C217">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D217">
         <v>1174.19999433</v>
@@ -3439,7 +3439,7 @@
         <v>36567</v>
       </c>
       <c r="C218">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D218">
         <v>1174.19999433</v>
@@ -3453,7 +3453,7 @@
         <v>36467</v>
       </c>
       <c r="C219">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D219">
         <v>1174.19999433</v>
@@ -3467,7 +3467,7 @@
         <v>36467</v>
       </c>
       <c r="C220">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D220">
         <v>1174.19999433</v>
@@ -3481,7 +3481,7 @@
         <v>36467</v>
       </c>
       <c r="C221">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D221">
         <v>1174.19999433</v>
@@ -3495,7 +3495,7 @@
         <v>36067</v>
       </c>
       <c r="C222">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D222">
         <v>1174.19999433</v>
@@ -3509,7 +3509,7 @@
         <v>36767</v>
       </c>
       <c r="C223">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D223">
         <v>1174.19999433</v>
@@ -3523,7 +3523,7 @@
         <v>37367</v>
       </c>
       <c r="C224">
-        <v>16170</v>
+        <v>14320</v>
       </c>
       <c r="D224">
         <v>1174.19999433</v>
@@ -3537,7 +3537,7 @@
         <v>37467</v>
       </c>
       <c r="C225">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D225">
         <v>1174.19999433</v>
@@ -3551,7 +3551,7 @@
         <v>37367</v>
       </c>
       <c r="C226">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D226">
         <v>1174.19999433</v>
@@ -3565,7 +3565,7 @@
         <v>37367</v>
       </c>
       <c r="C227">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D227">
         <v>1174.19999433</v>
@@ -3579,7 +3579,7 @@
         <v>37367</v>
       </c>
       <c r="C228">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D228">
         <v>1174.19999433</v>
@@ -3593,7 +3593,7 @@
         <v>37067</v>
       </c>
       <c r="C229">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D229">
         <v>1174.19999433</v>
@@ -3607,7 +3607,7 @@
         <v>37467</v>
       </c>
       <c r="C230">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D230">
         <v>1174.19999433</v>
@@ -3621,7 +3621,7 @@
         <v>37367</v>
       </c>
       <c r="C231">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D231">
         <v>1174.19999433</v>
@@ -3635,7 +3635,7 @@
         <v>37667</v>
       </c>
       <c r="C232">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D232">
         <v>1174.19999433</v>
@@ -3649,7 +3649,7 @@
         <v>37367</v>
       </c>
       <c r="C233">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D233">
         <v>1174.19999433</v>
@@ -3663,7 +3663,7 @@
         <v>37367</v>
       </c>
       <c r="C234">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D234">
         <v>1174.19999433</v>
@@ -3677,7 +3677,7 @@
         <v>37367</v>
       </c>
       <c r="C235">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D235">
         <v>1174.19999433</v>
@@ -3691,7 +3691,7 @@
         <v>39200</v>
       </c>
       <c r="C236">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D236">
         <v>1174.19999433</v>
@@ -3705,7 +3705,7 @@
         <v>39200</v>
       </c>
       <c r="C237">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D237">
         <v>1174.19999433</v>
@@ -3719,7 +3719,7 @@
         <v>39200</v>
       </c>
       <c r="C238">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D238">
         <v>1174.19999433</v>
@@ -3733,7 +3733,7 @@
         <v>38350</v>
       </c>
       <c r="C239">
-        <v>15660</v>
+        <v>14770</v>
       </c>
       <c r="D239">
         <v>1174.19999433</v>
@@ -3747,7 +3747,7 @@
         <v>39600</v>
       </c>
       <c r="C240">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D240">
         <v>1174.19999433</v>
@@ -3761,7 +3761,7 @@
         <v>39600</v>
       </c>
       <c r="C241">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D241">
         <v>1174.19999433</v>
@@ -3775,7 +3775,7 @@
         <v>39600</v>
       </c>
       <c r="C242">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D242">
         <v>1174.19999433</v>
@@ -3789,7 +3789,7 @@
         <v>39450</v>
       </c>
       <c r="C243">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D243">
         <v>1174.19999433</v>
@@ -3803,7 +3803,7 @@
         <v>39450</v>
       </c>
       <c r="C244">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D244">
         <v>1174.19999433</v>
@@ -3817,7 +3817,7 @@
         <v>39647.75</v>
       </c>
       <c r="C245">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D245">
         <v>1174.19999433</v>
@@ -3831,7 +3831,7 @@
         <v>39850</v>
       </c>
       <c r="C246">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D246">
         <v>1174.19999433</v>
@@ -3845,7 +3845,7 @@
         <v>39650</v>
       </c>
       <c r="C247">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D247">
         <v>1174.19999433</v>
@@ -3859,7 +3859,7 @@
         <v>39650</v>
       </c>
       <c r="C248">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D248">
         <v>1174.19999433</v>
@@ -3873,7 +3873,7 @@
         <v>39650</v>
       </c>
       <c r="C249">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D249">
         <v>1174.19999433</v>
@@ -3887,7 +3887,7 @@
         <v>39600</v>
       </c>
       <c r="C250">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D250">
         <v>1174.19999433</v>
@@ -3901,7 +3901,7 @@
         <v>39816.5</v>
       </c>
       <c r="C251">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D251">
         <v>1174.19999433</v>
@@ -3915,7 +3915,7 @@
         <v>39816.5</v>
       </c>
       <c r="C252">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D252">
         <v>1174.19999433</v>
@@ -3929,7 +3929,7 @@
         <v>39516.5</v>
       </c>
       <c r="C253">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D253">
         <v>1174.19999433</v>
@@ -3943,7 +3943,7 @@
         <v>38666.5</v>
       </c>
       <c r="C254">
-        <v>16020</v>
+        <v>14770</v>
       </c>
       <c r="D254">
         <v>1174.19999433</v>
@@ -3957,7 +3957,7 @@
         <v>38666.5</v>
       </c>
       <c r="C255">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D255">
         <v>1174.19999433</v>
@@ -3971,7 +3971,7 @@
         <v>38666.5</v>
       </c>
       <c r="C256">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D256">
         <v>1174.19999433</v>
@@ -3985,7 +3985,7 @@
         <v>40516.5</v>
       </c>
       <c r="C257">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D257">
         <v>1174.19999433</v>
@@ -3999,7 +3999,7 @@
         <v>39116.5</v>
       </c>
       <c r="C258">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D258">
         <v>1174.19999433</v>
@@ -4013,7 +4013,7 @@
         <v>39316.5</v>
       </c>
       <c r="C259">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D259">
         <v>1174.19999433</v>
@@ -4027,7 +4027,7 @@
         <v>39716.5</v>
       </c>
       <c r="C260">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D260">
         <v>1174.19999433</v>
@@ -4041,7 +4041,7 @@
         <v>39816.5</v>
       </c>
       <c r="C261">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D261">
         <v>1174.19999433</v>
@@ -4055,7 +4055,7 @@
         <v>39816.5</v>
       </c>
       <c r="C262">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D262">
         <v>1174.19999433</v>
@@ -4069,7 +4069,7 @@
         <v>39816.5</v>
       </c>
       <c r="C263">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D263">
         <v>1174.19999433</v>
@@ -4083,7 +4083,7 @@
         <v>40516.5</v>
       </c>
       <c r="C264">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D264">
         <v>1174.19999433</v>
@@ -4097,7 +4097,7 @@
         <v>40416.5</v>
       </c>
       <c r="C265">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D265">
         <v>1174.19999433</v>
@@ -4111,7 +4111,7 @@
         <v>40416.5</v>
       </c>
       <c r="C266">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D266">
         <v>1174.19999433</v>
@@ -4125,7 +4125,7 @@
         <v>40016.5</v>
       </c>
       <c r="C267">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D267">
         <v>1174.19999433</v>
@@ -4139,7 +4139,7 @@
         <v>40016.5</v>
       </c>
       <c r="C268">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D268">
         <v>1174.19999433</v>
@@ -4153,7 +4153,7 @@
         <v>40016.5</v>
       </c>
       <c r="C269">
-        <v>16580</v>
+        <v>15440</v>
       </c>
       <c r="D269">
         <v>1174.19999433</v>
@@ -4167,7 +4167,7 @@
         <v>40016.5</v>
       </c>
       <c r="C270">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D270">
         <v>1174.19999433</v>
@@ -4181,7 +4181,7 @@
         <v>40216.5</v>
       </c>
       <c r="C271">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D271">
         <v>1174.19999433</v>
@@ -4195,7 +4195,7 @@
         <v>39816.5</v>
       </c>
       <c r="C272">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D272">
         <v>1174.19999433</v>
@@ -4209,7 +4209,7 @@
         <v>40616.5</v>
       </c>
       <c r="C273">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D273">
         <v>1174.19999433</v>
@@ -4223,7 +4223,7 @@
         <v>39716.5</v>
       </c>
       <c r="C274">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D274">
         <v>1174.19999433</v>
@@ -4237,7 +4237,7 @@
         <v>39883.25</v>
       </c>
       <c r="C275">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D275">
         <v>1174.19999433</v>
@@ -4251,7 +4251,7 @@
         <v>39883.25</v>
       </c>
       <c r="C276">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D276">
         <v>1174.19999433</v>
@@ -4265,7 +4265,7 @@
         <v>39883.25</v>
       </c>
       <c r="C277">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D277">
         <v>1174.19999433</v>
@@ -4279,7 +4279,7 @@
         <v>40316.5</v>
       </c>
       <c r="C278">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D278">
         <v>1174.19999433</v>
@@ -4293,7 +4293,7 @@
         <v>40016.5</v>
       </c>
       <c r="C279">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D279">
         <v>1174.19999433</v>
@@ -4307,7 +4307,7 @@
         <v>39616.5</v>
       </c>
       <c r="C280">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D280">
         <v>1174.19999433</v>
@@ -4321,7 +4321,7 @@
         <v>39666.5</v>
       </c>
       <c r="C281">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D281">
         <v>1174.19999433</v>
@@ -4335,7 +4335,7 @@
         <v>39716.5</v>
       </c>
       <c r="C282">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D282">
         <v>1174.19999433</v>
@@ -4349,7 +4349,7 @@
         <v>39716.5</v>
       </c>
       <c r="C283">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D283">
         <v>1174.19999433</v>
@@ -4363,7 +4363,7 @@
         <v>39716.5</v>
       </c>
       <c r="C284">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D284">
         <v>1174.19999433</v>
@@ -4377,7 +4377,7 @@
         <v>39966.5</v>
       </c>
       <c r="C285">
-        <v>17540</v>
+        <v>16110</v>
       </c>
       <c r="D285">
         <v>1174.19999433</v>
@@ -4391,7 +4391,7 @@
         <v>39466.5</v>
       </c>
       <c r="C286">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D286">
         <v>1174.19999433</v>
@@ -4405,7 +4405,7 @@
         <v>39866.5</v>
       </c>
       <c r="C287">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D287">
         <v>1174.19999433</v>
@@ -4419,7 +4419,7 @@
         <v>40216.5</v>
       </c>
       <c r="C288">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D288">
         <v>1174.19999433</v>
@@ -4433,7 +4433,7 @@
         <v>40216.5</v>
       </c>
       <c r="C289">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D289">
         <v>1174.19999433</v>
@@ -4447,7 +4447,7 @@
         <v>40216.5</v>
       </c>
       <c r="C290">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D290">
         <v>1174.19999433</v>
@@ -4461,7 +4461,7 @@
         <v>40216.5</v>
       </c>
       <c r="C291">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D291">
         <v>1174.19999433</v>
@@ -4475,7 +4475,7 @@
         <v>40416.5</v>
       </c>
       <c r="C292">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D292">
         <v>1174.19999433</v>
@@ -4489,7 +4489,7 @@
         <v>39816.5</v>
       </c>
       <c r="C293">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D293">
         <v>1174.19999433</v>
@@ -4503,7 +4503,7 @@
         <v>39800</v>
       </c>
       <c r="C294">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D294">
         <v>1174.19999433</v>
@@ -4517,7 +4517,7 @@
         <v>39916.5</v>
       </c>
       <c r="C295">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D295">
         <v>1174.19999433</v>
@@ -4531,7 +4531,7 @@
         <v>40116.5</v>
       </c>
       <c r="C296">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D296">
         <v>1174.19999433</v>
@@ -4545,7 +4545,7 @@
         <v>40116.5</v>
       </c>
       <c r="C297">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D297">
         <v>1174.19999433</v>
@@ -4559,7 +4559,7 @@
         <v>40116.5</v>
       </c>
       <c r="C298">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D298">
         <v>1174.19999433</v>
@@ -4573,7 +4573,7 @@
         <v>40416.5</v>
       </c>
       <c r="C299">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D299">
         <v>1174.19999433</v>
@@ -4587,7 +4587,7 @@
         <v>40383.5</v>
       </c>
       <c r="C300">
-        <v>18710</v>
+        <v>16530</v>
       </c>
       <c r="D300">
         <v>1174.19999433</v>
@@ -4601,7 +4601,7 @@
         <v>41916.5</v>
       </c>
       <c r="C301">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D301">
         <v>1174.19999433</v>
@@ -4615,7 +4615,7 @@
         <v>41883</v>
       </c>
       <c r="C302">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D302">
         <v>1174.19999433</v>
@@ -4629,7 +4629,7 @@
         <v>39800</v>
       </c>
       <c r="C303">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D303">
         <v>1174.19999433</v>
@@ -4643,7 +4643,7 @@
         <v>39800</v>
       </c>
       <c r="C304">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D304">
         <v>1174.19999433</v>
@@ -4657,7 +4657,7 @@
         <v>39800</v>
       </c>
       <c r="C305">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D305">
         <v>1174.19999433</v>
@@ -4671,7 +4671,7 @@
         <v>40943.5</v>
       </c>
       <c r="C306">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D306">
         <v>1174.19999433</v>
@@ -4685,7 +4685,7 @@
         <v>40916.5</v>
       </c>
       <c r="C307">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D307">
         <v>1174.19999433</v>
@@ -4699,7 +4699,7 @@
         <v>41783.5</v>
       </c>
       <c r="C308">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D308">
         <v>1174.19999433</v>
@@ -4713,7 +4713,7 @@
         <v>41316.5</v>
       </c>
       <c r="C309">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D309">
         <v>1174.19999433</v>
@@ -4727,7 +4727,7 @@
         <v>40616.5</v>
       </c>
       <c r="C310">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D310">
         <v>1174.19999433</v>
@@ -4741,7 +4741,7 @@
         <v>40616.5</v>
       </c>
       <c r="C311">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D311">
         <v>1174.19999433</v>
@@ -4755,7 +4755,7 @@
         <v>40616.5</v>
       </c>
       <c r="C312">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D312">
         <v>1174.19999433</v>
@@ -4769,7 +4769,7 @@
         <v>40216.5</v>
       </c>
       <c r="C313">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D313">
         <v>1174.19999433</v>
@@ -4783,7 +4783,7 @@
         <v>40016.5</v>
       </c>
       <c r="C314">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D314">
         <v>1174.19999433</v>
@@ -4797,7 +4797,7 @@
         <v>40716.5</v>
       </c>
       <c r="C315">
-        <v>18710</v>
+        <v>16370</v>
       </c>
       <c r="D315">
         <v>1174.19999433</v>
@@ -4811,7 +4811,7 @@
         <v>40416.5</v>
       </c>
       <c r="C316">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D316">
         <v>1174.19999433</v>
@@ -4825,7 +4825,7 @@
         <v>41316.5</v>
       </c>
       <c r="C317">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D317">
         <v>1174.19999433</v>
@@ -4839,7 +4839,7 @@
         <v>41316.5</v>
       </c>
       <c r="C318">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D318">
         <v>1174.19999433</v>
@@ -4853,7 +4853,7 @@
         <v>41316.5</v>
       </c>
       <c r="C319">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D319">
         <v>1174.19999433</v>
@@ -4867,7 +4867,7 @@
         <v>40816.5</v>
       </c>
       <c r="C320">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D320">
         <v>1174.19999433</v>
@@ -4881,7 +4881,7 @@
         <v>40616.5</v>
       </c>
       <c r="C321">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D321">
         <v>1174.19999433</v>
@@ -4895,7 +4895,7 @@
         <v>40316.5</v>
       </c>
       <c r="C322">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D322">
         <v>1174.19999433</v>
@@ -4909,7 +4909,7 @@
         <v>40716.5</v>
       </c>
       <c r="C323">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D323">
         <v>1174.19999433</v>
@@ -4923,7 +4923,7 @@
         <v>40116.5</v>
       </c>
       <c r="C324">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D324">
         <v>1174.19999433</v>
@@ -4937,7 +4937,7 @@
         <v>40116.5</v>
       </c>
       <c r="C325">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D325">
         <v>1174.19999433</v>
@@ -4951,7 +4951,7 @@
         <v>40116.5</v>
       </c>
       <c r="C326">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D326">
         <v>1174.19999433</v>
@@ -4965,7 +4965,7 @@
         <v>40416.5</v>
       </c>
       <c r="C327">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D327">
         <v>1174.19999433</v>
@@ -4979,7 +4979,7 @@
         <v>40766.5</v>
       </c>
       <c r="C328">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D328">
         <v>1174.19999433</v>
@@ -4993,7 +4993,7 @@
         <v>41416.5</v>
       </c>
       <c r="C329">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D329">
         <v>1174.19999433</v>
@@ -5007,7 +5007,7 @@
         <v>40966.5</v>
       </c>
       <c r="C330">
-        <v>18380</v>
+        <v>16170</v>
       </c>
       <c r="D330">
         <v>1174.19999433</v>
@@ -5021,7 +5021,7 @@
         <v>40866.5</v>
       </c>
       <c r="C331">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D331">
         <v>1174.19999433</v>
@@ -5035,7 +5035,7 @@
         <v>40866.5</v>
       </c>
       <c r="C332">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D332">
         <v>1174.19999433</v>
@@ -5049,7 +5049,7 @@
         <v>40866.5</v>
       </c>
       <c r="C333">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D333">
         <v>1174.19999433</v>
@@ -5063,7 +5063,7 @@
         <v>41133</v>
       </c>
       <c r="C334">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D334">
         <v>1174.19999433</v>
@@ -5077,7 +5077,7 @@
         <v>40366.5</v>
       </c>
       <c r="C335">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D335">
         <v>1174.19999433</v>
@@ -5091,7 +5091,7 @@
         <v>40751.5</v>
       </c>
       <c r="C336">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D336">
         <v>1174.19999433</v>
@@ -5105,7 +5105,7 @@
         <v>40866.5</v>
       </c>
       <c r="C337">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D337">
         <v>1174.19999433</v>
@@ -5119,7 +5119,7 @@
         <v>41166.5</v>
       </c>
       <c r="C338">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D338">
         <v>1174.19999433</v>
@@ -5133,7 +5133,7 @@
         <v>41166.5</v>
       </c>
       <c r="C339">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D339">
         <v>1174.19999433</v>
@@ -5147,7 +5147,7 @@
         <v>41166.5</v>
       </c>
       <c r="C340">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D340">
         <v>1174.19999433</v>
@@ -5161,7 +5161,7 @@
         <v>41566.5</v>
       </c>
       <c r="C341">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D341">
         <v>1174.19999433</v>
@@ -5175,7 +5175,7 @@
         <v>41866.5</v>
       </c>
       <c r="C342">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D342">
         <v>1174.19999433</v>
@@ -5189,7 +5189,7 @@
         <v>40916.5</v>
       </c>
       <c r="C343">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D343">
         <v>1174.19999433</v>
@@ -5203,7 +5203,7 @@
         <v>40966.5</v>
       </c>
       <c r="C344">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D344">
         <v>1174.19999433</v>
@@ -5217,7 +5217,7 @@
         <v>41166.5</v>
       </c>
       <c r="C345">
-        <v>17330</v>
+        <v>15660</v>
       </c>
       <c r="D345">
         <v>1174.19999433</v>
@@ -5231,7 +5231,7 @@
         <v>41166.5</v>
       </c>
       <c r="C346">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D346">
         <v>1174.19999433</v>
@@ -5245,7 +5245,7 @@
         <v>41166.5</v>
       </c>
       <c r="C347">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D347">
         <v>1174.19999433</v>
@@ -5259,7 +5259,7 @@
         <v>41166.5</v>
       </c>
       <c r="C348">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D348">
         <v>1174.19999433</v>
@@ -5273,7 +5273,7 @@
         <v>41166.5</v>
       </c>
       <c r="C349">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D349">
         <v>1174.19999433</v>
@@ -5287,7 +5287,7 @@
         <v>41466.5</v>
       </c>
       <c r="C350">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D350">
         <v>1174.19999433</v>
@@ -5301,7 +5301,7 @@
         <v>41466.5</v>
       </c>
       <c r="C351">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D351">
         <v>1174.19999433</v>
@@ -5315,7 +5315,7 @@
         <v>40866.5</v>
       </c>
       <c r="C352">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D352">
         <v>1174.19999433</v>
@@ -5329,7 +5329,7 @@
         <v>40866.5</v>
       </c>
       <c r="C353">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D353">
         <v>1174.19999433</v>
@@ -5343,7 +5343,7 @@
         <v>40866.5</v>
       </c>
       <c r="C354">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D354">
         <v>1174.19999433</v>
@@ -5357,7 +5357,7 @@
         <v>41166.5</v>
       </c>
       <c r="C355">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D355">
         <v>1174.19999433</v>
@@ -5371,7 +5371,7 @@
         <v>40866.5</v>
       </c>
       <c r="C356">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D356">
         <v>1174.19999433</v>
@@ -5385,7 +5385,7 @@
         <v>40866.5</v>
       </c>
       <c r="C357">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D357">
         <v>1174.19999433</v>
@@ -5399,7 +5399,7 @@
         <v>41266.5</v>
       </c>
       <c r="C358">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D358">
         <v>1174.19999433</v>
@@ -5413,7 +5413,7 @@
         <v>41416.5</v>
       </c>
       <c r="C359">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D359">
         <v>1174.19999433</v>
@@ -5427,7 +5427,7 @@
         <v>41416.5</v>
       </c>
       <c r="C360">
-        <v>17570</v>
+        <v>16020</v>
       </c>
       <c r="D360">
         <v>1174.19999433</v>
@@ -5441,7 +5441,7 @@
         <v>41416.5</v>
       </c>
       <c r="C361">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D361">
         <v>1174.19999433</v>
@@ -5455,7 +5455,7 @@
         <v>41066.5</v>
       </c>
       <c r="C362">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D362">
         <v>1174.19999433</v>
@@ -5469,7 +5469,7 @@
         <v>41166.5</v>
       </c>
       <c r="C363">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D363">
         <v>1174.19999433</v>
@@ -5483,7 +5483,7 @@
         <v>40966.5</v>
       </c>
       <c r="C364">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D364">
         <v>1174.19999433</v>
@@ -5497,7 +5497,7 @@
         <v>41166.5</v>
       </c>
       <c r="C365">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D365">
         <v>1174.19999433</v>
@@ -5511,7 +5511,7 @@
         <v>41166.5</v>
       </c>
       <c r="C366">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D366">
         <v>1174.19999433</v>
@@ -5525,7 +5525,7 @@
         <v>39853.5</v>
       </c>
       <c r="C367">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D367">
         <v>1300.20001093</v>
@@ -5539,7 +5539,7 @@
         <v>39853.5</v>
       </c>
       <c r="C368">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D368">
         <v>1300.20001093</v>
@@ -5553,7 +5553,7 @@
         <v>40966.5</v>
       </c>
       <c r="C369">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D369">
         <v>1300.20001093</v>
@@ -5567,7 +5567,7 @@
         <v>40966.5</v>
       </c>
       <c r="C370">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D370">
         <v>1300.20001093</v>
@@ -5581,7 +5581,7 @@
         <v>40916.5</v>
       </c>
       <c r="C371">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D371">
         <v>1300.20001093</v>
@@ -5595,7 +5595,7 @@
         <v>40616.5</v>
       </c>
       <c r="C372">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D372">
         <v>1300.20001093</v>
@@ -5609,7 +5609,7 @@
         <v>39966.5</v>
       </c>
       <c r="C373">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D373">
         <v>1300.20001093</v>
@@ -5623,7 +5623,7 @@
         <v>39966.5</v>
       </c>
       <c r="C374">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D374">
         <v>1300.20001093</v>
@@ -5637,7 +5637,7 @@
         <v>39966.5</v>
       </c>
       <c r="C375">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D375">
         <v>1300.20001093</v>
@@ -5651,7 +5651,7 @@
         <v>40366.5</v>
       </c>
       <c r="C376">
-        <v>18230</v>
+        <v>16580</v>
       </c>
       <c r="D376">
         <v>1300.20001093</v>
@@ -5665,7 +5665,7 @@
         <v>39766.5</v>
       </c>
       <c r="C377">
-        <v>18230</v>
+        <v>17540</v>
       </c>
       <c r="D377">
         <v>1300.20001093</v>
@@ -5679,7 +5679,7 @@
         <v>39800</v>
       </c>
       <c r="C378">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D378">
         <v>1300.20001093</v>
@@ -5693,7 +5693,7 @@
         <v>39966.5</v>
       </c>
       <c r="C379">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D379">
         <v>1300.20001093</v>
@@ -5707,7 +5707,7 @@
         <v>39466.5</v>
       </c>
       <c r="C380">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D380">
         <v>1300.20001093</v>
@@ -5721,7 +5721,7 @@
         <v>39466.5</v>
       </c>
       <c r="C381">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D381">
         <v>1300.20001093</v>
@@ -5735,7 +5735,7 @@
         <v>39466.5</v>
       </c>
       <c r="C382">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D382">
         <v>1300.20001093</v>
@@ -5749,7 +5749,7 @@
         <v>39266.5</v>
       </c>
       <c r="C383">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D383">
         <v>1300.20001093</v>
@@ -5763,7 +5763,7 @@
         <v>39266.5</v>
       </c>
       <c r="C384">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D384">
         <v>1300.20001093</v>
@@ -5777,7 +5777,7 @@
         <v>39166.5</v>
       </c>
       <c r="C385">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D385">
         <v>1300.20001093</v>
@@ -5791,7 +5791,7 @@
         <v>39566.5</v>
       </c>
       <c r="C386">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D386">
         <v>1300.20001093</v>
@@ -5805,7 +5805,7 @@
         <v>39766.5</v>
       </c>
       <c r="C387">
-        <v>18900</v>
+        <v>17540</v>
       </c>
       <c r="D387">
         <v>1300.20001093</v>
@@ -5819,7 +5819,7 @@
         <v>39766.5</v>
       </c>
       <c r="C388">
-        <v>19860</v>
+        <v>17540</v>
       </c>
       <c r="D388">
         <v>1300.20001093</v>
@@ -5833,7 +5833,7 @@
         <v>39766.5</v>
       </c>
       <c r="C389">
-        <v>19860</v>
+        <v>17540</v>
       </c>
       <c r="D389">
         <v>1300.20001093</v>
@@ -5847,7 +5847,7 @@
         <v>39466.5</v>
       </c>
       <c r="C390">
-        <v>19860</v>
+        <v>17540</v>
       </c>
       <c r="D390">
         <v>1300.20001093</v>
@@ -5861,7 +5861,7 @@
         <v>39366.5</v>
       </c>
       <c r="C391">
-        <v>19860</v>
+        <v>17540</v>
       </c>
       <c r="D391">
         <v>1300.20001093</v>
@@ -5875,7 +5875,7 @@
         <v>39666.5</v>
       </c>
       <c r="C392">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D392">
         <v>1300.20001093</v>
@@ -5889,7 +5889,7 @@
         <v>39666.5</v>
       </c>
       <c r="C393">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D393">
         <v>1300.20001093</v>
@@ -5903,7 +5903,7 @@
         <v>39366.5</v>
       </c>
       <c r="C394">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D394">
         <v>1300.20001093</v>
@@ -5917,7 +5917,7 @@
         <v>39366.5</v>
       </c>
       <c r="C395">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D395">
         <v>1300.20001093</v>
@@ -5931,7 +5931,7 @@
         <v>39366.5</v>
       </c>
       <c r="C396">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D396">
         <v>1300.20001093</v>
@@ -5945,7 +5945,7 @@
         <v>39566.5</v>
       </c>
       <c r="C397">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D397">
         <v>1300.20001093</v>
@@ -5959,7 +5959,7 @@
         <v>40113.25</v>
       </c>
       <c r="C398">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D398">
         <v>1300.20001093</v>
@@ -5973,7 +5973,7 @@
         <v>39466.5</v>
       </c>
       <c r="C399">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D399">
         <v>1300.20001093</v>
@@ -5987,7 +5987,7 @@
         <v>39866.5</v>
       </c>
       <c r="C400">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D400">
         <v>1300.20001093</v>
@@ -6001,7 +6001,7 @@
         <v>40366.5</v>
       </c>
       <c r="C401">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D401">
         <v>1300.20001093</v>
@@ -6015,7 +6015,7 @@
         <v>40366.5</v>
       </c>
       <c r="C402">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D402">
         <v>1300.20001093</v>
@@ -6029,7 +6029,7 @@
         <v>40366.5</v>
       </c>
       <c r="C403">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D403">
         <v>1300.20001093</v>
@@ -6043,7 +6043,7 @@
         <v>40166.5</v>
       </c>
       <c r="C404">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D404">
         <v>1300.20001093</v>
@@ -6057,7 +6057,7 @@
         <v>40366.5</v>
       </c>
       <c r="C405">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D405">
         <v>1300.20001093</v>
@@ -6071,7 +6071,7 @@
         <v>40666.5</v>
       </c>
       <c r="C406">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D406">
         <v>1300.20001093</v>
@@ -6085,7 +6085,7 @@
         <v>41066.5</v>
       </c>
       <c r="C407">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D407">
         <v>1300.20001093</v>
@@ -6099,7 +6099,7 @@
         <v>41166.5</v>
       </c>
       <c r="C408">
-        <v>19860</v>
+        <v>18710</v>
       </c>
       <c r="D408">
         <v>1300.20001093</v>
@@ -6113,7 +6113,7 @@
         <v>41166.5</v>
       </c>
       <c r="C409">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D409">
         <v>1300.20001093</v>
@@ -6127,7 +6127,7 @@
         <v>41166.5</v>
       </c>
       <c r="C410">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D410">
         <v>1300.20001093</v>
@@ -6141,7 +6141,7 @@
         <v>41166.5</v>
       </c>
       <c r="C411">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D411">
         <v>1300.20001093</v>
@@ -6155,7 +6155,7 @@
         <v>41166.5</v>
       </c>
       <c r="C412">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D412">
         <v>1300.20001093</v>
@@ -6169,7 +6169,7 @@
         <v>41116.5</v>
       </c>
       <c r="C413">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D413">
         <v>1300.20001093</v>
@@ -6183,7 +6183,7 @@
         <v>41466.5</v>
       </c>
       <c r="C414">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D414">
         <v>1300.20001093</v>
@@ -6197,7 +6197,7 @@
         <v>41466.5</v>
       </c>
       <c r="C415">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D415">
         <v>1300.20001093</v>
@@ -6211,7 +6211,7 @@
         <v>41466.5</v>
       </c>
       <c r="C416">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D416">
         <v>1300.20001093</v>
@@ -6225,7 +6225,7 @@
         <v>41466.5</v>
       </c>
       <c r="C417">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D417">
         <v>1300.20001093</v>
@@ -6239,7 +6239,7 @@
         <v>41066.5</v>
       </c>
       <c r="C418">
-        <v>20800</v>
+        <v>18710</v>
       </c>
       <c r="D418">
         <v>1300.20001093</v>
@@ -6253,7 +6253,7 @@
         <v>41066.5</v>
       </c>
       <c r="C419">
-        <v>21310</v>
+        <v>18710</v>
       </c>
       <c r="D419">
         <v>1300.20001093</v>
@@ -6267,7 +6267,7 @@
         <v>41616.5</v>
       </c>
       <c r="C420">
-        <v>21310</v>
+        <v>18710</v>
       </c>
       <c r="D420">
         <v>1300.20001093</v>
@@ -6281,7 +6281,7 @@
         <v>41333.5</v>
       </c>
       <c r="C421">
-        <v>21310</v>
+        <v>18710</v>
       </c>
       <c r="D421">
         <v>1300.20001093</v>
@@ -6295,7 +6295,7 @@
         <v>40466.5</v>
       </c>
       <c r="C422">
-        <v>21310</v>
+        <v>18380</v>
       </c>
       <c r="D422">
         <v>1300.20001093</v>
@@ -6309,7 +6309,7 @@
         <v>40466.5</v>
       </c>
       <c r="C423">
-        <v>21310</v>
+        <v>18380</v>
       </c>
       <c r="D423">
         <v>1300.20001093</v>
@@ -6323,7 +6323,7 @@
         <v>40466.5</v>
       </c>
       <c r="C424">
-        <v>21310</v>
+        <v>18380</v>
       </c>
       <c r="D424">
         <v>1300.20001093</v>
@@ -6337,7 +6337,7 @@
         <v>40666.5</v>
       </c>
       <c r="C425">
-        <v>21310</v>
+        <v>18380</v>
       </c>
       <c r="D425">
         <v>1300.20001093</v>
@@ -6351,7 +6351,7 @@
         <v>40296.75</v>
       </c>
       <c r="C426">
-        <v>21310</v>
+        <v>18380</v>
       </c>
       <c r="D426">
         <v>1300.20001093</v>
@@ -6365,7 +6365,7 @@
         <v>39566.5</v>
       </c>
       <c r="C427">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D427">
         <v>1300.20001093</v>
@@ -6379,7 +6379,7 @@
         <v>39166.5</v>
       </c>
       <c r="C428">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D428">
         <v>1300.20001093</v>
@@ -6393,7 +6393,7 @@
         <v>38966.5</v>
       </c>
       <c r="C429">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D429">
         <v>1300.20001093</v>
@@ -6407,7 +6407,7 @@
         <v>38966.5</v>
       </c>
       <c r="C430">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D430">
         <v>1300.20001093</v>
@@ -6421,7 +6421,7 @@
         <v>38966.5</v>
       </c>
       <c r="C431">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D431">
         <v>1300.20001093</v>
@@ -6435,7 +6435,7 @@
         <v>39366.5</v>
       </c>
       <c r="C432">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D432">
         <v>1300.20001093</v>
@@ -6449,7 +6449,7 @@
         <v>39466.5</v>
       </c>
       <c r="C433">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D433">
         <v>1300.20001093</v>
@@ -6463,7 +6463,7 @@
         <v>40066.5</v>
       </c>
       <c r="C434">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D434">
         <v>1300.20001093</v>
@@ -6477,7 +6477,7 @@
         <v>40750</v>
       </c>
       <c r="C435">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D435">
         <v>1300.20001093</v>
@@ -6491,7 +6491,7 @@
         <v>40466.5</v>
       </c>
       <c r="C436">
-        <v>25260</v>
+        <v>18380</v>
       </c>
       <c r="D436">
         <v>1300.20001093</v>
@@ -6505,7 +6505,7 @@
         <v>40466.5</v>
       </c>
       <c r="C437">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D437">
         <v>1300.20001093</v>
@@ -6519,7 +6519,7 @@
         <v>40466.5</v>
       </c>
       <c r="C438">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D438">
         <v>1300.20001093</v>
@@ -6533,7 +6533,7 @@
         <v>40466.5</v>
       </c>
       <c r="C439">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D439">
         <v>1300.20001093</v>
@@ -6547,7 +6547,7 @@
         <v>40666.5</v>
       </c>
       <c r="C440">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D440">
         <v>1300.20001093</v>
@@ -6561,7 +6561,7 @@
         <v>40266.5</v>
       </c>
       <c r="C441">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D441">
         <v>1300.20001093</v>
@@ -6575,7 +6575,7 @@
         <v>40766.5</v>
       </c>
       <c r="C442">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D442">
         <v>1300.20001093</v>
@@ -6589,7 +6589,7 @@
         <v>41066.5</v>
       </c>
       <c r="C443">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D443">
         <v>1300.20001093</v>
@@ -6603,7 +6603,7 @@
         <v>41066.5</v>
       </c>
       <c r="C444">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D444">
         <v>1300.20001093</v>
@@ -6617,7 +6617,7 @@
         <v>41066.5</v>
       </c>
       <c r="C445">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D445">
         <v>1300.20001093</v>
@@ -6631,7 +6631,7 @@
         <v>41466.5</v>
       </c>
       <c r="C446">
-        <v>23630</v>
+        <v>17330</v>
       </c>
       <c r="D446">
         <v>1300.20001093</v>
@@ -6645,7 +6645,7 @@
         <v>41666.5</v>
       </c>
       <c r="C447">
-        <v>25080</v>
+        <v>17330</v>
       </c>
       <c r="D447">
         <v>1300.20001093</v>
@@ -6659,7 +6659,7 @@
         <v>41466.5</v>
       </c>
       <c r="C448">
-        <v>25080</v>
+        <v>17330</v>
       </c>
       <c r="D448">
         <v>1300.20001093</v>
@@ -6673,7 +6673,7 @@
         <v>41166.5</v>
       </c>
       <c r="C449">
-        <v>25080</v>
+        <v>17330</v>
       </c>
       <c r="D449">
         <v>1300.20001093</v>
@@ -6687,7 +6687,7 @@
         <v>40766.5</v>
       </c>
       <c r="C450">
-        <v>25080</v>
+        <v>17330</v>
       </c>
       <c r="D450">
         <v>1300.20001093</v>
@@ -6701,7 +6701,7 @@
         <v>40766.5</v>
       </c>
       <c r="C451">
-        <v>25080</v>
+        <v>17330</v>
       </c>
       <c r="D451">
         <v>1300.20001093</v>
@@ -6715,7 +6715,7 @@
         <v>40766.5</v>
       </c>
       <c r="C452">
-        <v>25080</v>
+        <v>17570</v>
       </c>
       <c r="D452">
         <v>1300.20001093</v>
@@ -6729,7 +6729,7 @@
         <v>41066.5</v>
       </c>
       <c r="C453">
-        <v>25080</v>
+        <v>17570</v>
       </c>
       <c r="D453">
         <v>1300.20001093</v>
@@ -6743,7 +6743,7 @@
         <v>41066.5</v>
       </c>
       <c r="C454">
-        <v>25080</v>
+        <v>17570</v>
       </c>
       <c r="D454">
         <v>1300.20001093</v>
@@ -6757,7 +6757,7 @@
         <v>41066.5</v>
       </c>
       <c r="C455">
-        <v>25080</v>
+        <v>17570</v>
       </c>
       <c r="D455">
         <v>1300.20001093</v>
@@ -6771,7 +6771,7 @@
         <v>41266.5</v>
       </c>
       <c r="C456">
-        <v>25080</v>
+        <v>17570</v>
       </c>
       <c r="D456">
         <v>1300.20001093</v>
@@ -6785,7 +6785,7 @@
         <v>41103.5</v>
       </c>
       <c r="C457">
-        <v>25080</v>
+        <v>17570</v>
       </c>
       <c r="D457">
         <v>1300.20001093</v>
@@ -6799,7 +6799,7 @@
         <v>41103.5</v>
       </c>
       <c r="C458">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D458">
         <v>1300.20001093</v>
@@ -6813,7 +6813,7 @@
         <v>41103.5</v>
       </c>
       <c r="C459">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D459">
         <v>1300.20001093</v>
@@ -6827,7 +6827,7 @@
         <v>41166.5</v>
       </c>
       <c r="C460">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D460">
         <v>1300.20001093</v>
@@ -6841,7 +6841,7 @@
         <v>41166.5</v>
       </c>
       <c r="C461">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D461">
         <v>1300.20001093</v>
@@ -6855,7 +6855,7 @@
         <v>40966.5</v>
       </c>
       <c r="C462">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D462">
         <v>1300.20001093</v>
@@ -6869,7 +6869,7 @@
         <v>40566.5</v>
       </c>
       <c r="C463">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D463">
         <v>1300.20001093</v>
@@ -6883,7 +6883,7 @@
         <v>40366.5</v>
       </c>
       <c r="C464">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D464">
         <v>1300.20001093</v>
@@ -6897,7 +6897,7 @@
         <v>40366.5</v>
       </c>
       <c r="C465">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D465">
         <v>1300.20001093</v>
@@ -6911,7 +6911,7 @@
         <v>40366.5</v>
       </c>
       <c r="C466">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D466">
         <v>1300.20001093</v>
@@ -6925,7 +6925,7 @@
         <v>40966.5</v>
       </c>
       <c r="C467">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D467">
         <v>1300.20001093</v>
@@ -6939,7 +6939,7 @@
         <v>41166.5</v>
       </c>
       <c r="C468">
-        <v>24380</v>
+        <v>17570</v>
       </c>
       <c r="D468">
         <v>1300.20001093</v>
@@ -6953,7 +6953,7 @@
         <v>40866.5</v>
       </c>
       <c r="C469">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D469">
         <v>1300.20001093</v>
@@ -6967,7 +6967,7 @@
         <v>40766.5</v>
       </c>
       <c r="C470">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D470">
         <v>1300.20001093</v>
@@ -6981,7 +6981,7 @@
         <v>40666.5</v>
       </c>
       <c r="C471">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D471">
         <v>1300.20001093</v>
@@ -6995,7 +6995,7 @@
         <v>40666.5</v>
       </c>
       <c r="C472">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D472">
         <v>1300.20001093</v>
@@ -7009,7 +7009,7 @@
         <v>40666.5</v>
       </c>
       <c r="C473">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D473">
         <v>1300.20001093</v>
@@ -7023,7 +7023,7 @@
         <v>40666.5</v>
       </c>
       <c r="C474">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D474">
         <v>1300.20001093</v>
@@ -7037,7 +7037,7 @@
         <v>40666.5</v>
       </c>
       <c r="C475">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D475">
         <v>1300.20001093</v>
@@ -7051,7 +7051,7 @@
         <v>40466.5</v>
       </c>
       <c r="C476">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D476">
         <v>1300.20001093</v>
@@ -7065,7 +7065,7 @@
         <v>40566.5</v>
       </c>
       <c r="C477">
-        <v>25350</v>
+        <v>18230</v>
       </c>
       <c r="D477">
         <v>1300.20001093</v>
@@ -7079,7 +7079,7 @@
         <v>40966.5</v>
       </c>
       <c r="C478">
-        <v>25530</v>
+        <v>18230</v>
       </c>
       <c r="D478">
         <v>1300.20001093</v>
@@ -7093,7 +7093,7 @@
         <v>40966.5</v>
       </c>
       <c r="C479">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D479">
         <v>1300.20001093</v>
@@ -7107,7 +7107,7 @@
         <v>40966.5</v>
       </c>
       <c r="C480">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D480">
         <v>1300.20001093</v>
@@ -7121,7 +7121,7 @@
         <v>41166.5</v>
       </c>
       <c r="C481">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D481">
         <v>1300.20001093</v>
@@ -7135,7 +7135,7 @@
         <v>40166.5</v>
       </c>
       <c r="C482">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D482">
         <v>1300.20001093</v>
@@ -7149,7 +7149,7 @@
         <v>40166.5</v>
       </c>
       <c r="C483">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D483">
         <v>1300.20001093</v>
@@ -7163,7 +7163,7 @@
         <v>39766.5</v>
       </c>
       <c r="C484">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D484">
         <v>1300.20001093</v>
@@ -7177,7 +7177,7 @@
         <v>40816.5</v>
       </c>
       <c r="C485">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D485">
         <v>1300.20001093</v>
@@ -7191,7 +7191,7 @@
         <v>40816.5</v>
       </c>
       <c r="C486">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D486">
         <v>1300.20001093</v>
@@ -7205,7 +7205,7 @@
         <v>41098.5</v>
       </c>
       <c r="C487">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D487">
         <v>1300.20001093</v>
@@ -7219,7 +7219,7 @@
         <v>41366.5</v>
       </c>
       <c r="C488">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D488">
         <v>1300.20001093</v>
@@ -7233,7 +7233,7 @@
         <v>41466.5</v>
       </c>
       <c r="C489">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D489">
         <v>1300.20001093</v>
@@ -7247,7 +7247,7 @@
         <v>41566.5</v>
       </c>
       <c r="C490">
-        <v>25530</v>
+        <v>18900</v>
       </c>
       <c r="D490">
         <v>1300.20001093</v>
@@ -7261,7 +7261,7 @@
         <v>41866.5</v>
       </c>
       <c r="C491">
-        <v>26650</v>
+        <v>18900</v>
       </c>
       <c r="D491">
         <v>1300.20001093</v>
@@ -7275,7 +7275,7 @@
         <v>41766.5</v>
       </c>
       <c r="C492">
-        <v>26650</v>
+        <v>18900</v>
       </c>
       <c r="D492">
         <v>1300.20001093</v>
@@ -7289,7 +7289,7 @@
         <v>41766.5</v>
       </c>
       <c r="C493">
-        <v>26650</v>
+        <v>18900</v>
       </c>
       <c r="D493">
         <v>1300.20001093</v>
@@ -7303,7 +7303,7 @@
         <v>41766.5</v>
       </c>
       <c r="C494">
-        <v>26650</v>
+        <v>18900</v>
       </c>
       <c r="D494">
         <v>1300.20001093</v>
@@ -7317,7 +7317,7 @@
         <v>40766.5</v>
       </c>
       <c r="C495">
-        <v>26650</v>
+        <v>18900</v>
       </c>
       <c r="D495">
         <v>1300.20001093</v>
@@ -7331,7 +7331,7 @@
         <v>39716.5</v>
       </c>
       <c r="C496">
-        <v>26650</v>
+        <v>18900</v>
       </c>
       <c r="D496">
         <v>1300.20001093</v>
@@ -7345,7 +7345,7 @@
         <v>39716.5</v>
       </c>
       <c r="C497">
-        <v>26650</v>
+        <v>18900</v>
       </c>
       <c r="D497">
         <v>1300.20001093</v>
@@ -7359,7 +7359,7 @@
         <v>40766.5</v>
       </c>
       <c r="C498">
-        <v>25550</v>
+        <v>18900</v>
       </c>
       <c r="D498">
         <v>1300.20001093</v>
@@ -7373,7 +7373,7 @@
         <v>40666.5</v>
       </c>
       <c r="C499">
-        <v>25550</v>
+        <v>18900</v>
       </c>
       <c r="D499">
         <v>1300.20001093</v>
@@ -7387,7 +7387,7 @@
         <v>40666.5</v>
       </c>
       <c r="C500">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D500">
         <v>1300.20001093</v>
@@ -7401,7 +7401,7 @@
         <v>40666.5</v>
       </c>
       <c r="C501">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D501">
         <v>1300.20001093</v>
@@ -7415,7 +7415,7 @@
         <v>40466.5</v>
       </c>
       <c r="C502">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D502">
         <v>1300.20001093</v>
@@ -7429,7 +7429,7 @@
         <v>41366.5</v>
       </c>
       <c r="C503">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D503">
         <v>1300.20001093</v>
@@ -7443,7 +7443,7 @@
         <v>41666.5</v>
       </c>
       <c r="C504">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D504">
         <v>1300.20001093</v>
@@ -7457,7 +7457,7 @@
         <v>40866.5</v>
       </c>
       <c r="C505">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D505">
         <v>1300.20001093</v>
@@ -7471,7 +7471,7 @@
         <v>41266.5</v>
       </c>
       <c r="C506">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D506">
         <v>1300.20001093</v>
@@ -7485,7 +7485,7 @@
         <v>41266.5</v>
       </c>
       <c r="C507">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D507">
         <v>1300.20001093</v>
@@ -7499,7 +7499,7 @@
         <v>41266.5</v>
       </c>
       <c r="C508">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D508">
         <v>1300.20001093</v>
@@ -7513,7 +7513,7 @@
         <v>40866.5</v>
       </c>
       <c r="C509">
-        <v>25550</v>
+        <v>19860</v>
       </c>
       <c r="D509">
         <v>1300.20001093</v>
@@ -7527,7 +7527,7 @@
         <v>40666.5</v>
       </c>
       <c r="C510">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D510">
         <v>1300.20001093</v>
@@ -7541,7 +7541,7 @@
         <v>40766.5</v>
       </c>
       <c r="C511">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D511">
         <v>1300.20001093</v>
@@ -7555,7 +7555,7 @@
         <v>41366.5</v>
       </c>
       <c r="C512">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D512">
         <v>1300.20001093</v>
@@ -7569,7 +7569,7 @@
         <v>41766.5</v>
       </c>
       <c r="C513">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D513">
         <v>1300.20001093</v>
@@ -7583,7 +7583,7 @@
         <v>41766.5</v>
       </c>
       <c r="C514">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D514">
         <v>1300.20001093</v>
@@ -7597,7 +7597,7 @@
         <v>41766.5</v>
       </c>
       <c r="C515">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D515">
         <v>1300.20001093</v>
@@ -7611,7 +7611,7 @@
         <v>41666.5</v>
       </c>
       <c r="C516">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D516">
         <v>1300.20001093</v>
@@ -7625,7 +7625,7 @@
         <v>41766.5</v>
       </c>
       <c r="C517">
-        <v>26390</v>
+        <v>20800</v>
       </c>
       <c r="D517">
         <v>1300.20001093</v>
@@ -7639,7 +7639,7 @@
         <v>42118.75</v>
       </c>
       <c r="C518">
-        <v>26390</v>
+        <v>21310</v>
       </c>
       <c r="D518">
         <v>1300.20001093</v>
@@ -7653,7 +7653,7 @@
         <v>42766.5</v>
       </c>
       <c r="C519">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D519">
         <v>1300.20001093</v>
@@ -7667,7 +7667,7 @@
         <v>42766.5</v>
       </c>
       <c r="C520">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D520">
         <v>1300.20001093</v>
@@ -7681,7 +7681,7 @@
         <v>42766.5</v>
       </c>
       <c r="C521">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D521">
         <v>1300.20001093</v>
@@ -7695,7 +7695,7 @@
         <v>42766.5</v>
       </c>
       <c r="C522">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D522">
         <v>1300.20001093</v>
@@ -7709,7 +7709,7 @@
         <v>42766.5</v>
       </c>
       <c r="C523">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D523">
         <v>1300.20001093</v>
@@ -7723,7 +7723,7 @@
         <v>42416.5</v>
       </c>
       <c r="C524">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D524">
         <v>1300.20001093</v>
@@ -7737,7 +7737,7 @@
         <v>42266.5</v>
       </c>
       <c r="C525">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D525">
         <v>1300.20001093</v>
@@ -7751,7 +7751,7 @@
         <v>42266.5</v>
       </c>
       <c r="C526">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D526">
         <v>1300.20001093</v>
@@ -7765,7 +7765,7 @@
         <v>42066.5</v>
       </c>
       <c r="C527">
-        <v>29020</v>
+        <v>21310</v>
       </c>
       <c r="D527">
         <v>1300.20001093</v>
@@ -7779,7 +7779,7 @@
         <v>42066.5</v>
       </c>
       <c r="C528">
-        <v>29020</v>
+        <v>25260</v>
       </c>
       <c r="D528">
         <v>1300.20001093</v>
@@ -7793,7 +7793,7 @@
         <v>42066.5</v>
       </c>
       <c r="C529">
-        <v>29020</v>
+        <v>25260</v>
       </c>
       <c r="D529">
         <v>1300.20001093</v>
@@ -7807,7 +7807,7 @@
         <v>41766.5</v>
       </c>
       <c r="C530">
-        <v>29020</v>
+        <v>25260</v>
       </c>
       <c r="D530">
         <v>1300.20001093</v>
@@ -7821,7 +7821,7 @@
         <v>41366.5</v>
       </c>
       <c r="C531">
-        <v>30010</v>
+        <v>25260</v>
       </c>
       <c r="D531">
         <v>1300.20001093</v>
@@ -7835,7 +7835,7 @@
         <v>41216.5</v>
       </c>
       <c r="C532">
-        <v>30010</v>
+        <v>25260</v>
       </c>
       <c r="D532">
         <v>1300.20001093</v>
@@ -7849,7 +7849,7 @@
         <v>41216.5</v>
       </c>
       <c r="C533">
-        <v>30010</v>
+        <v>25260</v>
       </c>
       <c r="D533">
         <v>1300.20001093</v>
@@ -7863,7 +7863,7 @@
         <v>42416.5</v>
       </c>
       <c r="C534">
-        <v>30010</v>
+        <v>25260</v>
       </c>
       <c r="D534">
         <v>1300.20001093</v>
@@ -7877,7 +7877,7 @@
         <v>42416.5</v>
       </c>
       <c r="C535">
-        <v>30010</v>
+        <v>25260</v>
       </c>
       <c r="D535">
         <v>1300.20001093</v>
@@ -7891,7 +7891,7 @@
         <v>42416.5</v>
       </c>
       <c r="C536">
-        <v>30010</v>
+        <v>25260</v>
       </c>
       <c r="D536">
         <v>1300.20001093</v>
@@ -7905,7 +7905,7 @@
         <v>42516.5</v>
       </c>
       <c r="C537">
-        <v>30010</v>
+        <v>25260</v>
       </c>
       <c r="D537">
         <v>1300.20001093</v>
@@ -7919,7 +7919,7 @@
         <v>42516.5</v>
       </c>
       <c r="C538">
-        <v>30010</v>
+        <v>23630</v>
       </c>
       <c r="D538">
         <v>1300.20001093</v>
@@ -7933,7 +7933,7 @@
         <v>42966.5</v>
       </c>
       <c r="C539">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D539">
         <v>1300.20001093</v>
@@ -7947,7 +7947,7 @@
         <v>43366.5</v>
       </c>
       <c r="C540">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D540">
         <v>1300.20001093</v>
@@ -7961,7 +7961,7 @@
         <v>43066.5</v>
       </c>
       <c r="C541">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D541">
         <v>1300.20001093</v>
@@ -7975,7 +7975,7 @@
         <v>43066.5</v>
       </c>
       <c r="C542">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D542">
         <v>1300.20001093</v>
@@ -7989,7 +7989,7 @@
         <v>43066.5</v>
       </c>
       <c r="C543">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D543">
         <v>1300.20001093</v>
@@ -8003,7 +8003,7 @@
         <v>42716.5</v>
       </c>
       <c r="C544">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D544">
         <v>1300.20001093</v>
@@ -8017,7 +8017,7 @@
         <v>42816.5</v>
       </c>
       <c r="C545">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D545">
         <v>1300.20001093</v>
@@ -8031,7 +8031,7 @@
         <v>42316.5</v>
       </c>
       <c r="C546">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D546">
         <v>1300.20001093</v>
@@ -8045,7 +8045,7 @@
         <v>42716.5</v>
       </c>
       <c r="C547">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D547">
         <v>1300.20001093</v>
@@ -8059,7 +8059,7 @@
         <v>42409.75</v>
       </c>
       <c r="C548">
-        <v>29610</v>
+        <v>23630</v>
       </c>
       <c r="D548">
         <v>1300.20001093</v>
@@ -8073,7 +8073,7 @@
         <v>42409.75</v>
       </c>
       <c r="C549">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D549">
         <v>1300.20001093</v>
@@ -8087,7 +8087,7 @@
         <v>42409.75</v>
       </c>
       <c r="C550">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D550">
         <v>1300.20001093</v>
@@ -8101,7 +8101,7 @@
         <v>42116.5</v>
       </c>
       <c r="C551">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D551">
         <v>1300.20001093</v>
@@ -8115,7 +8115,7 @@
         <v>42116.5</v>
       </c>
       <c r="C552">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D552">
         <v>1300.20001093</v>
@@ -8129,7 +8129,7 @@
         <v>41416.5</v>
       </c>
       <c r="C553">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D553">
         <v>1300.20001093</v>
@@ -8143,7 +8143,7 @@
         <v>41516.5</v>
       </c>
       <c r="C554">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D554">
         <v>1300.20001093</v>
@@ -8157,7 +8157,7 @@
         <v>41316.5</v>
       </c>
       <c r="C555">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D555">
         <v>1300.20001093</v>
@@ -8171,7 +8171,7 @@
         <v>41316.5</v>
       </c>
       <c r="C556">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D556">
         <v>1300.20001093</v>
@@ -8185,7 +8185,7 @@
         <v>41316.5</v>
       </c>
       <c r="C557">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D557">
         <v>1300.20001093</v>
@@ -8199,7 +8199,7 @@
         <v>41916.5</v>
       </c>
       <c r="C558">
-        <v>26590</v>
+        <v>25080</v>
       </c>
       <c r="D558">
         <v>1300.20001093</v>
@@ -8213,7 +8213,7 @@
         <v>41566.5</v>
       </c>
       <c r="C559">
-        <v>24850</v>
+        <v>25080</v>
       </c>
       <c r="D559">
         <v>1300.20001093</v>
@@ -8227,7 +8227,7 @@
         <v>41416.5</v>
       </c>
       <c r="C560">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D560">
         <v>1300.20001093</v>
@@ -8241,7 +8241,7 @@
         <v>42016.5</v>
       </c>
       <c r="C561">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D561">
         <v>1300.20001093</v>
@@ -8255,7 +8255,7 @@
         <v>41016.5</v>
       </c>
       <c r="C562">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D562">
         <v>1300.20001093</v>
@@ -8269,7 +8269,7 @@
         <v>41016.5</v>
       </c>
       <c r="C563">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D563">
         <v>1300.20001093</v>
@@ -8283,7 +8283,7 @@
         <v>41016.5</v>
       </c>
       <c r="C564">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D564">
         <v>1300.20001093</v>
@@ -8297,7 +8297,7 @@
         <v>41216.5</v>
       </c>
       <c r="C565">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D565">
         <v>1300.20001093</v>
@@ -8311,7 +8311,7 @@
         <v>42216.5</v>
       </c>
       <c r="C566">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D566">
         <v>1300.20001093</v>
@@ -8325,7 +8325,7 @@
         <v>42616.5</v>
       </c>
       <c r="C567">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D567">
         <v>1300.20001093</v>
@@ -8339,7 +8339,7 @@
         <v>42716.5</v>
       </c>
       <c r="C568">
-        <v>24850</v>
+        <v>24380</v>
       </c>
       <c r="D568">
         <v>1300.20001093</v>
@@ -8353,7 +8353,7 @@
         <v>42516.5</v>
       </c>
       <c r="C569">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D569">
         <v>1300.20001093</v>
@@ -8367,7 +8367,7 @@
         <v>42516.5</v>
       </c>
       <c r="C570">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D570">
         <v>1300.20001093</v>
@@ -8381,7 +8381,7 @@
         <v>42516.5</v>
       </c>
       <c r="C571">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D571">
         <v>1300.20001093</v>
@@ -8395,7 +8395,7 @@
         <v>42316.5</v>
       </c>
       <c r="C572">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D572">
         <v>1300.20001093</v>
@@ -8409,7 +8409,7 @@
         <v>42616.5</v>
       </c>
       <c r="C573">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D573">
         <v>1300.20001093</v>
@@ -8423,7 +8423,7 @@
         <v>42716.5</v>
       </c>
       <c r="C574">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D574">
         <v>1300.20001093</v>
@@ -8437,7 +8437,7 @@
         <v>43050</v>
       </c>
       <c r="C575">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D575">
         <v>1300.20001093</v>
@@ -8451,7 +8451,7 @@
         <v>43050</v>
       </c>
       <c r="C576">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D576">
         <v>1300.20001093</v>
@@ -8465,7 +8465,7 @@
         <v>43050</v>
       </c>
       <c r="C577">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D577">
         <v>1300.20001093</v>
@@ -8479,7 +8479,7 @@
         <v>43050</v>
       </c>
       <c r="C578">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D578">
         <v>1300.20001093</v>
@@ -8493,7 +8493,7 @@
         <v>45567.25</v>
       </c>
       <c r="C579">
-        <v>23900</v>
+        <v>25350</v>
       </c>
       <c r="D579">
         <v>1300.20001093</v>
@@ -8507,7 +8507,7 @@
         <v>44216.5</v>
       </c>
       <c r="C580">
-        <v>22900</v>
+        <v>25350</v>
       </c>
       <c r="D580">
         <v>1300.20001093</v>
@@ -8521,7 +8521,7 @@
         <v>44116.5</v>
       </c>
       <c r="C581">
-        <v>22900</v>
+        <v>25350</v>
       </c>
       <c r="D581">
         <v>1300.20001093</v>
@@ -8535,7 +8535,7 @@
         <v>44216.5</v>
       </c>
       <c r="C582">
-        <v>22900</v>
+        <v>25530</v>
       </c>
       <c r="D582">
         <v>1300.20001093</v>
@@ -8549,7 +8549,7 @@
         <v>43700</v>
       </c>
       <c r="C583">
-        <v>22900</v>
+        <v>25530</v>
       </c>
       <c r="D583">
         <v>1300.20001093</v>
@@ -8563,7 +8563,7 @@
         <v>43700</v>
       </c>
       <c r="C584">
-        <v>22900</v>
+        <v>25530</v>
       </c>
       <c r="D584">
         <v>1300.20001093</v>
@@ -8577,7 +8577,7 @@
         <v>43700</v>
       </c>
       <c r="C585">
-        <v>22900</v>
+        <v>25530</v>
       </c>
       <c r="D585">
         <v>1300.20001093</v>
@@ -8591,7 +8591,7 @@
         <v>44616.5</v>
       </c>
       <c r="C586">
-        <v>22900</v>
+        <v>25530</v>
       </c>
       <c r="D586">
         <v>1300.20001093</v>
@@ -8605,7 +8605,7 @@
         <v>44916.5</v>
       </c>
       <c r="C587">
-        <v>22900</v>
+        <v>25530</v>
       </c>
       <c r="D587">
         <v>1300.20001093</v>
@@ -8619,7 +8619,7 @@
         <v>45616.5</v>
       </c>
       <c r="C588">
-        <v>22900</v>
+        <v>25530</v>
       </c>
       <c r="D588">
         <v>1300.20001093</v>
@@ -8633,7 +8633,7 @@
         <v>44916.5</v>
       </c>
       <c r="C589">
-        <v>22900</v>
+        <v>26650</v>
       </c>
       <c r="D589">
         <v>1300.20001093</v>
@@ -8647,7 +8647,7 @@
         <v>48016.5</v>
       </c>
       <c r="C590">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D590">
         <v>1300.20001093</v>
@@ -8661,7 +8661,7 @@
         <v>48016.5</v>
       </c>
       <c r="C591">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D591">
         <v>1300.20001093</v>
@@ -8675,7 +8675,7 @@
         <v>48016.5</v>
       </c>
       <c r="C592">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D592">
         <v>1300.20001093</v>
@@ -8689,7 +8689,7 @@
         <v>48716.5</v>
       </c>
       <c r="C593">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D593">
         <v>1300.20001093</v>
@@ -8703,7 +8703,7 @@
         <v>48816.5</v>
       </c>
       <c r="C594">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D594">
         <v>1300.20001093</v>
@@ -8717,7 +8717,7 @@
         <v>48416.5</v>
       </c>
       <c r="C595">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D595">
         <v>1300.20001093</v>
@@ -8731,7 +8731,7 @@
         <v>48116.5</v>
       </c>
       <c r="C596">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D596">
         <v>1300.20001093</v>
@@ -8745,7 +8745,7 @@
         <v>48016.5</v>
       </c>
       <c r="C597">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D597">
         <v>1300.20001093</v>
@@ -8759,7 +8759,7 @@
         <v>48016.5</v>
       </c>
       <c r="C598">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D598">
         <v>1300.20001093</v>
@@ -8773,7 +8773,7 @@
         <v>48016.5</v>
       </c>
       <c r="C599">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D599">
         <v>1300.20001093</v>
@@ -8787,7 +8787,7 @@
         <v>48316.5</v>
       </c>
       <c r="C600">
-        <v>23750</v>
+        <v>26650</v>
       </c>
       <c r="D600">
         <v>1300.20001093</v>
@@ -8801,7 +8801,7 @@
         <v>48616.5</v>
       </c>
       <c r="C601">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D601">
         <v>1300.20001093</v>
@@ -8815,7 +8815,7 @@
         <v>48916.5</v>
       </c>
       <c r="C602">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D602">
         <v>1300.20001093</v>
@@ -8829,7 +8829,7 @@
         <v>49416.5</v>
       </c>
       <c r="C603">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D603">
         <v>1300.20001093</v>
@@ -8843,7 +8843,7 @@
         <v>49416.5</v>
       </c>
       <c r="C604">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D604">
         <v>1300.20001093</v>
@@ -8857,7 +8857,7 @@
         <v>49416.5</v>
       </c>
       <c r="C605">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D605">
         <v>1300.20001093</v>
@@ -8871,7 +8871,7 @@
         <v>48566.5</v>
       </c>
       <c r="C606">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D606">
         <v>1300.20001093</v>
@@ -8885,7 +8885,7 @@
         <v>48466.5</v>
       </c>
       <c r="C607">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D607">
         <v>1300.20001093</v>
@@ -8899,7 +8899,7 @@
         <v>48166.5</v>
       </c>
       <c r="C608">
-        <v>25180</v>
+        <v>25550</v>
       </c>
       <c r="D608">
         <v>1300.20001093</v>
@@ -8913,7 +8913,7 @@
         <v>47934</v>
       </c>
       <c r="C609">
-        <v>25180</v>
+        <v>26390</v>
       </c>
       <c r="D609">
         <v>1300.20001093</v>
@@ -8927,7 +8927,7 @@
         <v>47766.5</v>
       </c>
       <c r="C610">
-        <v>25180</v>
+        <v>26390</v>
       </c>
       <c r="D610">
         <v>1300.20001093</v>
@@ -8941,7 +8941,7 @@
         <v>47766.5</v>
       </c>
       <c r="C611">
-        <v>25180</v>
+        <v>26390</v>
       </c>
       <c r="D611">
         <v>1300.20001093</v>
@@ -8955,7 +8955,7 @@
         <v>47766.5</v>
       </c>
       <c r="C612">
-        <v>25180</v>
+        <v>26390</v>
       </c>
       <c r="D612">
         <v>1300.20001093</v>
@@ -8969,7 +8969,7 @@
         <v>47566.5</v>
       </c>
       <c r="C613">
-        <v>25180</v>
+        <v>26390</v>
       </c>
       <c r="D613">
         <v>1300.20001093</v>
@@ -8983,7 +8983,7 @@
         <v>47466.5</v>
       </c>
       <c r="C614">
-        <v>24180</v>
+        <v>26390</v>
       </c>
       <c r="D614">
         <v>1300.20001093</v>
@@ -8997,7 +8997,7 @@
         <v>47766.5</v>
       </c>
       <c r="C615">
-        <v>24180</v>
+        <v>26390</v>
       </c>
       <c r="D615">
         <v>1300.20001093</v>
@@ -9011,7 +9011,7 @@
         <v>47766.5</v>
       </c>
       <c r="C616">
-        <v>24180</v>
+        <v>26390</v>
       </c>
       <c r="D616">
         <v>1300.20001093</v>
@@ -9025,7 +9025,7 @@
         <v>47766.5</v>
       </c>
       <c r="C617">
-        <v>24180</v>
+        <v>26390</v>
       </c>
       <c r="D617">
         <v>1300.20001093</v>
@@ -9039,7 +9039,7 @@
         <v>47766.5</v>
       </c>
       <c r="C618">
-        <v>24180</v>
+        <v>26390</v>
       </c>
       <c r="D618">
         <v>1300.20001093</v>
@@ -9053,7 +9053,7 @@
         <v>47766.5</v>
       </c>
       <c r="C619">
-        <v>24180</v>
+        <v>26390</v>
       </c>
       <c r="D619">
         <v>1300.20001093</v>
@@ -9067,7 +9067,7 @@
         <v>48066.5</v>
       </c>
       <c r="C620">
-        <v>24180</v>
+        <v>26390</v>
       </c>
       <c r="D620">
         <v>1300.20001093</v>
@@ -9081,7 +9081,7 @@
         <v>47966.5</v>
       </c>
       <c r="C621">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D621">
         <v>1300.20001093</v>
@@ -9095,7 +9095,7 @@
         <v>47466.5</v>
       </c>
       <c r="C622">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D622">
         <v>1300.20001093</v>
@@ -9109,7 +9109,7 @@
         <v>47366.5</v>
       </c>
       <c r="C623">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D623">
         <v>1300.20001093</v>
@@ -9123,7 +9123,7 @@
         <v>47366.5</v>
       </c>
       <c r="C624">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D624">
         <v>1300.20001093</v>
@@ -9137,7 +9137,7 @@
         <v>47366.5</v>
       </c>
       <c r="C625">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D625">
         <v>1300.20001093</v>
@@ -9151,7 +9151,7 @@
         <v>47366.5</v>
       </c>
       <c r="C626">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D626">
         <v>1300.20001093</v>
@@ -9165,7 +9165,7 @@
         <v>47166.5</v>
       </c>
       <c r="C627">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D627">
         <v>1300.20001093</v>
@@ -9179,7 +9179,7 @@
         <v>47166.5</v>
       </c>
       <c r="C628">
-        <v>22530</v>
+        <v>29020</v>
       </c>
       <c r="D628">
         <v>1300.20001093</v>
@@ -9193,7 +9193,7 @@
         <v>47466.5</v>
       </c>
       <c r="C629">
-        <v>22530</v>
+        <v>30010</v>
       </c>
       <c r="D629">
         <v>1300.20001093</v>
@@ -9207,7 +9207,7 @@
         <v>47466.5</v>
       </c>
       <c r="C630">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D630">
         <v>1300.20001093</v>
@@ -9221,7 +9221,7 @@
         <v>47699.8</v>
       </c>
       <c r="C631">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D631">
         <v>1300.20001093</v>
@@ -9235,7 +9235,7 @@
         <v>47699.8</v>
       </c>
       <c r="C632">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D632">
         <v>1300.20001093</v>
@@ -9249,7 +9249,7 @@
         <v>47699.8</v>
       </c>
       <c r="C633">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D633">
         <v>1300.20001093</v>
@@ -9263,7 +9263,7 @@
         <v>47316.5</v>
       </c>
       <c r="C634">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D634">
         <v>1300.20001093</v>
@@ -9277,7 +9277,7 @@
         <v>46866.5</v>
       </c>
       <c r="C635">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D635">
         <v>1300.20001093</v>
@@ -9291,7 +9291,7 @@
         <v>46866.5</v>
       </c>
       <c r="C636">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D636">
         <v>1300.20001093</v>
@@ -9305,7 +9305,7 @@
         <v>46816.5</v>
       </c>
       <c r="C637">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D637">
         <v>1300.20001093</v>
@@ -9319,7 +9319,7 @@
         <v>46466.5</v>
       </c>
       <c r="C638">
-        <v>22200</v>
+        <v>30010</v>
       </c>
       <c r="D638">
         <v>1300.20001093</v>
@@ -9333,7 +9333,7 @@
         <v>46466.5</v>
       </c>
       <c r="C639">
-        <v>22200</v>
+        <v>29610</v>
       </c>
       <c r="D639">
         <v>1300.20001093</v>
@@ -9347,7 +9347,7 @@
         <v>46466.5</v>
       </c>
       <c r="C640">
-        <v>22200</v>
+        <v>29610</v>
       </c>
       <c r="D640">
         <v>1300.20001093</v>
@@ -9361,7 +9361,7 @@
         <v>46466.5</v>
       </c>
       <c r="C641">
-        <v>22200</v>
+        <v>29610</v>
       </c>
       <c r="D641">
         <v>1300.20001093</v>
@@ -9375,7 +9375,7 @@
         <v>46666.5</v>
       </c>
       <c r="C642">
-        <v>24180</v>
+        <v>29610</v>
       </c>
       <c r="D642">
         <v>1300.20001093</v>
@@ -9389,7 +9389,7 @@
         <v>46666.5</v>
       </c>
       <c r="C643">
-        <v>24180</v>
+        <v>29610</v>
       </c>
       <c r="D643">
         <v>1300.20001093</v>
@@ -9403,7 +9403,7 @@
         <v>46666.5</v>
       </c>
       <c r="C644">
-        <v>24180</v>
+        <v>29610</v>
       </c>
       <c r="D644">
         <v>1300.20001093</v>
@@ -9417,7 +9417,7 @@
         <v>46616.5</v>
       </c>
       <c r="C645">
-        <v>24180</v>
+        <v>29610</v>
       </c>
       <c r="D645">
         <v>1300.20001093</v>
@@ -9431,7 +9431,7 @@
         <v>46616.5</v>
       </c>
       <c r="C646">
-        <v>24180</v>
+        <v>29610</v>
       </c>
       <c r="D646">
         <v>1300.20001093</v>
@@ -9445,7 +9445,7 @@
         <v>46616.5</v>
       </c>
       <c r="C647">
-        <v>24180</v>
+        <v>29610</v>
       </c>
       <c r="D647">
         <v>1300.20001093</v>
@@ -9459,7 +9459,7 @@
         <v>46583.5</v>
       </c>
       <c r="C648">
-        <v>24180</v>
+        <v>29610</v>
       </c>
       <c r="D648">
         <v>1300.20001093</v>
@@ -9473,7 +9473,7 @@
         <v>46683.5</v>
       </c>
       <c r="C649">
-        <v>24180</v>
+        <v>26590</v>
       </c>
       <c r="D649">
         <v>1300.20001093</v>
@@ -9487,7 +9487,7 @@
         <v>46533.5</v>
       </c>
       <c r="C650">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D650">
         <v>1300.20001093</v>
@@ -9501,7 +9501,7 @@
         <v>45883.5</v>
       </c>
       <c r="C651">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D651">
         <v>1300.20001093</v>
@@ -9515,7 +9515,7 @@
         <v>45083.5</v>
       </c>
       <c r="C652">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D652">
         <v>1300.20001093</v>
@@ -9529,7 +9529,7 @@
         <v>45083.5</v>
       </c>
       <c r="C653">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D653">
         <v>1300.20001093</v>
@@ -9543,7 +9543,7 @@
         <v>45083.5</v>
       </c>
       <c r="C654">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D654">
         <v>1300.20001093</v>
@@ -9557,7 +9557,7 @@
         <v>44683.5</v>
       </c>
       <c r="C655">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D655">
         <v>1300.20001093</v>
@@ -9571,7 +9571,7 @@
         <v>44583.5</v>
       </c>
       <c r="C656">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D656">
         <v>1300.20001093</v>
@@ -9585,7 +9585,7 @@
         <v>44533.5</v>
       </c>
       <c r="C657">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D657">
         <v>1300.20001093</v>
@@ -9599,7 +9599,7 @@
         <v>44266.5</v>
       </c>
       <c r="C658">
-        <v>22150</v>
+        <v>26590</v>
       </c>
       <c r="D658">
         <v>1300.20001093</v>
@@ -9613,7 +9613,7 @@
         <v>43716.5</v>
       </c>
       <c r="C659">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D659">
         <v>1300.20001093</v>
@@ -9627,7 +9627,7 @@
         <v>43716.5</v>
       </c>
       <c r="C660">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D660">
         <v>1300.20001093</v>
@@ -9641,7 +9641,7 @@
         <v>43716.5</v>
       </c>
       <c r="C661">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D661">
         <v>1300.20001093</v>
@@ -9655,7 +9655,7 @@
         <v>43066.5</v>
       </c>
       <c r="C662">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D662">
         <v>1300.20001093</v>
@@ -9669,7 +9669,7 @@
         <v>42616.5</v>
       </c>
       <c r="C663">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D663">
         <v>1300.20001093</v>
@@ -9683,7 +9683,7 @@
         <v>41866.5</v>
       </c>
       <c r="C664">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D664">
         <v>1300.20001093</v>
@@ -9697,7 +9697,7 @@
         <v>41233.5</v>
       </c>
       <c r="C665">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D665">
         <v>1300.20001093</v>
@@ -9711,7 +9711,7 @@
         <v>40966.5</v>
       </c>
       <c r="C666">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D666">
         <v>1300.20001093</v>
@@ -9725,7 +9725,7 @@
         <v>40966.5</v>
       </c>
       <c r="C667">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D667">
         <v>1300.20001093</v>
@@ -9739,7 +9739,7 @@
         <v>40966.5</v>
       </c>
       <c r="C668">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D668">
         <v>1300.20001093</v>
@@ -9753,7 +9753,7 @@
         <v>40716.5</v>
       </c>
       <c r="C669">
-        <v>22150</v>
+        <v>24850</v>
       </c>
       <c r="D669">
         <v>1300.20001093</v>
@@ -9767,7 +9767,7 @@
         <v>40766.5</v>
       </c>
       <c r="C670">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D670">
         <v>1300.20001093</v>
@@ -9781,7 +9781,7 @@
         <v>40966.5</v>
       </c>
       <c r="C671">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D671">
         <v>1300.20001093</v>
@@ -9795,7 +9795,7 @@
         <v>40816.5</v>
       </c>
       <c r="C672">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D672">
         <v>1300.20001093</v>
@@ -9809,7 +9809,7 @@
         <v>40716.5</v>
       </c>
       <c r="C673">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D673">
         <v>1300.20001093</v>
@@ -9823,7 +9823,7 @@
         <v>40716.5</v>
       </c>
       <c r="C674">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D674">
         <v>1300.20001093</v>
@@ -9837,7 +9837,7 @@
         <v>40716.5</v>
       </c>
       <c r="C675">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D675">
         <v>1300.20001093</v>
@@ -9851,7 +9851,7 @@
         <v>40966.5</v>
       </c>
       <c r="C676">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D676">
         <v>1300.20001093</v>
@@ -9865,7 +9865,7 @@
         <v>40566.5</v>
       </c>
       <c r="C677">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D677">
         <v>1300.20001093</v>
@@ -9879,7 +9879,7 @@
         <v>40066.5</v>
       </c>
       <c r="C678">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D678">
         <v>1300.20001093</v>
@@ -9893,7 +9893,7 @@
         <v>40066.5</v>
       </c>
       <c r="C679">
-        <v>22150</v>
+        <v>23900</v>
       </c>
       <c r="D679">
         <v>1300.20001093</v>
@@ -9907,7 +9907,7 @@
         <v>40266.5</v>
       </c>
       <c r="C680">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D680">
         <v>1300.20001093</v>
@@ -9921,7 +9921,7 @@
         <v>40266.5</v>
       </c>
       <c r="C681">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D681">
         <v>1300.20001093</v>
@@ -9935,7 +9935,7 @@
         <v>40266.5</v>
       </c>
       <c r="C682">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D682">
         <v>1300.20001093</v>
@@ -9949,7 +9949,7 @@
         <v>40066.5</v>
       </c>
       <c r="C683">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D683">
         <v>1300.20001093</v>
@@ -9963,7 +9963,7 @@
         <v>39566.5</v>
       </c>
       <c r="C684">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D684">
         <v>1300.20001093</v>
@@ -9977,7 +9977,7 @@
         <v>39250</v>
       </c>
       <c r="C685">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D685">
         <v>1300.20001093</v>
@@ -9991,7 +9991,7 @@
         <v>39266.5</v>
       </c>
       <c r="C686">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D686">
         <v>1300.20001093</v>
@@ -10005,7 +10005,7 @@
         <v>39316.5</v>
       </c>
       <c r="C687">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D687">
         <v>1300.20001093</v>
@@ -10019,7 +10019,7 @@
         <v>39316.5</v>
       </c>
       <c r="C688">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D688">
         <v>1300.20001093</v>
@@ -10033,7 +10033,7 @@
         <v>39316.5</v>
       </c>
       <c r="C689">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D689">
         <v>1300.20001093</v>
@@ -10047,7 +10047,7 @@
         <v>39266.5</v>
       </c>
       <c r="C690">
-        <v>22150</v>
+        <v>22900</v>
       </c>
       <c r="D690">
         <v>1300.20001093</v>
@@ -10061,7 +10061,7 @@
         <v>39616.5</v>
       </c>
       <c r="C691">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D691">
         <v>1300.20001093</v>
@@ -10075,7 +10075,7 @@
         <v>39666.5</v>
       </c>
       <c r="C692">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D692">
         <v>1300.20001093</v>
@@ -10089,7 +10089,7 @@
         <v>39666.5</v>
       </c>
       <c r="C693">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D693">
         <v>1300.20001093</v>
@@ -10103,7 +10103,7 @@
         <v>40066.5</v>
       </c>
       <c r="C694">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D694">
         <v>1300.20001093</v>
@@ -10117,7 +10117,7 @@
         <v>40066.5</v>
       </c>
       <c r="C695">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D695">
         <v>1300.20001093</v>
@@ -10131,7 +10131,7 @@
         <v>40066.5</v>
       </c>
       <c r="C696">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D696">
         <v>1300.20001093</v>
@@ -10145,7 +10145,7 @@
         <v>40216.5</v>
       </c>
       <c r="C697">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D697">
         <v>1300.20001093</v>
@@ -10159,7 +10159,7 @@
         <v>40316.5</v>
       </c>
       <c r="C698">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D698">
         <v>1300.20001093</v>
@@ -10173,7 +10173,7 @@
         <v>40566.5</v>
       </c>
       <c r="C699">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D699">
         <v>1300.20001093</v>
@@ -10187,7 +10187,7 @@
         <v>40766.5</v>
       </c>
       <c r="C700">
-        <v>23210</v>
+        <v>23750</v>
       </c>
       <c r="D700">
         <v>1300.20001093</v>
@@ -10201,7 +10201,7 @@
         <v>40766.5</v>
       </c>
       <c r="C701">
-        <v>21670</v>
+        <v>23750</v>
       </c>
       <c r="D701">
         <v>1300.20001093</v>
@@ -10215,7 +10215,7 @@
         <v>40766.5</v>
       </c>
       <c r="C702">
-        <v>21670</v>
+        <v>23750</v>
       </c>
       <c r="D702">
         <v>1300.20001093</v>
@@ -10229,7 +10229,7 @@
         <v>40766.5</v>
       </c>
       <c r="C703">
-        <v>21670</v>
+        <v>23750</v>
       </c>
       <c r="D703">
         <v>1300.20001093</v>
@@ -10243,7 +10243,7 @@
         <v>40716.5</v>
       </c>
       <c r="C704">
-        <v>21670</v>
+        <v>23750</v>
       </c>
       <c r="D704">
         <v>1300.20001093</v>
@@ -10257,7 +10257,7 @@
         <v>40816.5</v>
       </c>
       <c r="C705">
-        <v>21670</v>
+        <v>25180</v>
       </c>
       <c r="D705">
         <v>1300.20001093</v>
@@ -10271,7 +10271,7 @@
         <v>41066.5</v>
       </c>
       <c r="C706">
-        <v>21670</v>
+        <v>25180</v>
       </c>
       <c r="D706">
         <v>1300.20001093</v>
@@ -10285,7 +10285,7 @@
         <v>40966.5</v>
       </c>
       <c r="C707">
-        <v>21670</v>
+        <v>25180</v>
       </c>
       <c r="D707">
         <v>1300.20001093</v>
@@ -10299,7 +10299,7 @@
         <v>40566.5</v>
       </c>
       <c r="C708">
-        <v>21670</v>
+        <v>25180</v>
       </c>
       <c r="D708">
         <v>1300.20001093</v>
@@ -10313,7 +10313,7 @@
         <v>40566.5</v>
       </c>
       <c r="C709">
-        <v>21670</v>
+        <v>25180</v>
       </c>
       <c r="D709">
         <v>1300.20001093</v>
@@ -10327,7 +10327,7 @@
         <v>40566.5</v>
       </c>
       <c r="C710">
-        <v>21670</v>
+        <v>25180</v>
       </c>
       <c r="D710">
         <v>1300.20001093</v>
@@ -10341,7 +10341,7 @@
         <v>40516.5</v>
       </c>
       <c r="C711">
-        <v>21670</v>
+        <v>25180</v>
       </c>
       <c r="D711">
         <v>1300.20001093</v>
@@ -10355,7 +10355,7 @@
         <v>40616.5</v>
       </c>
       <c r="C712">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D712">
         <v>1300.20001093</v>
@@ -10369,7 +10369,7 @@
         <v>40566.5</v>
       </c>
       <c r="C713">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D713">
         <v>1300.20001093</v>
@@ -10383,7 +10383,7 @@
         <v>40766.5</v>
       </c>
       <c r="C714">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D714">
         <v>1300.20001093</v>
@@ -10397,7 +10397,7 @@
         <v>40666.5</v>
       </c>
       <c r="C715">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D715">
         <v>1300.20001093</v>
@@ -10411,7 +10411,7 @@
         <v>40666.5</v>
       </c>
       <c r="C716">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D716">
         <v>1300.20001093</v>
@@ -10425,7 +10425,7 @@
         <v>40666.5</v>
       </c>
       <c r="C717">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D717">
         <v>1300.20001093</v>
@@ -10439,7 +10439,7 @@
         <v>40316.5</v>
       </c>
       <c r="C718">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D718">
         <v>1300.20001093</v>
@@ -10453,7 +10453,7 @@
         <v>40316.5</v>
       </c>
       <c r="C719">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D719">
         <v>1300.20001093</v>
@@ -10467,7 +10467,7 @@
         <v>40466.5</v>
       </c>
       <c r="C720">
-        <v>22150</v>
+        <v>24180</v>
       </c>
       <c r="D720">
         <v>1300.20001093</v>
@@ -10481,7 +10481,7 @@
         <v>40516.5</v>
       </c>
       <c r="C721">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D721">
         <v>1300.20001093</v>
@@ -10495,7 +10495,7 @@
         <v>40416.5</v>
       </c>
       <c r="C722">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D722">
         <v>1300.20001093</v>
@@ -10509,7 +10509,7 @@
         <v>40416.5</v>
       </c>
       <c r="C723">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D723">
         <v>1300.20001093</v>
@@ -10523,7 +10523,7 @@
         <v>40416.5</v>
       </c>
       <c r="C724">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D724">
         <v>1300.20001093</v>
@@ -10537,7 +10537,7 @@
         <v>40366.5</v>
       </c>
       <c r="C725">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D725">
         <v>1300.20001093</v>
@@ -10551,7 +10551,7 @@
         <v>40366.5</v>
       </c>
       <c r="C726">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D726">
         <v>1300.20001093</v>
@@ -10565,7 +10565,7 @@
         <v>40266.5</v>
       </c>
       <c r="C727">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D727">
         <v>1300.20001093</v>
@@ -10579,7 +10579,7 @@
         <v>39766.5</v>
       </c>
       <c r="C728">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D728">
         <v>1300.20001093</v>
@@ -10593,7 +10593,7 @@
         <v>39116.5</v>
       </c>
       <c r="C729">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D729">
         <v>1300.20001093</v>
@@ -10607,7 +10607,7 @@
         <v>39116.5</v>
       </c>
       <c r="C730">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D730">
         <v>1300.20001093</v>
@@ -10621,7 +10621,7 @@
         <v>39116.5</v>
       </c>
       <c r="C731">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D731">
         <v>1259.80001318</v>
@@ -10635,7 +10635,7 @@
         <v>38866.5</v>
       </c>
       <c r="C732">
-        <v>22150</v>
+        <v>22530</v>
       </c>
       <c r="D732">
         <v>1259.80001318</v>
@@ -10649,7 +10649,7 @@
         <v>39266.5</v>
       </c>
       <c r="C733">
-        <v>22150</v>
+        <v>22200</v>
       </c>
       <c r="D733">
         <v>1259.80001318</v>
@@ -10663,7 +10663,7 @@
         <v>39766.5</v>
       </c>
       <c r="C734">
-        <v>21630</v>
+        <v>22200</v>
       </c>
       <c r="D734">
         <v>1259.80001318</v>
@@ -10677,7 +10677,7 @@
         <v>39566.5</v>
       </c>
       <c r="C735">
-        <v>21630</v>
+        <v>22200</v>
       </c>
       <c r="D735">
         <v>1259.80001318</v>
@@ -10691,7 +10691,7 @@
         <v>39166.5</v>
       </c>
       <c r="C736">
-        <v>21630</v>
+        <v>22200</v>
       </c>
       <c r="D736">
         <v>1259.80001318</v>
@@ -10705,7 +10705,7 @@
         <v>39166.5</v>
       </c>
       <c r="C737">
-        <v>21630</v>
+        <v>22200</v>
       </c>
       <c r="D737">
         <v>1259.80001318</v>
@@ -10719,7 +10719,7 @@
         <v>39166.5</v>
       </c>
       <c r="C738">
-        <v>21630</v>
+        <v>22200</v>
       </c>
       <c r="D738">
         <v>1259.80001318</v>
@@ -10733,7 +10733,7 @@
         <v>39316.5</v>
       </c>
       <c r="C739">
-        <v>21630</v>
+        <v>22200</v>
       </c>
       <c r="D739">
         <v>1259.80001318</v>
@@ -10747,7 +10747,7 @@
         <v>39366.5</v>
       </c>
       <c r="C740">
-        <v>21630</v>
+        <v>22200</v>
       </c>
       <c r="D740">
         <v>1259.80001318</v>
@@ -10761,7 +10761,7 @@
         <v>38966.5</v>
       </c>
       <c r="C741">
-        <v>21630</v>
+        <v>24180</v>
       </c>
       <c r="D741">
         <v>1259.80001318</v>
@@ -10775,7 +10775,7 @@
         <v>39216.5</v>
       </c>
       <c r="C742">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D742">
         <v>1259.80001318</v>
@@ -10789,7 +10789,7 @@
         <v>40216.5</v>
       </c>
       <c r="C743">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D743">
         <v>1259.80001318</v>
@@ -10803,7 +10803,7 @@
         <v>40216.5</v>
       </c>
       <c r="C744">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D744">
         <v>1259.80001318</v>
@@ -10817,7 +10817,7 @@
         <v>40216.5</v>
       </c>
       <c r="C745">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D745">
         <v>1259.80001318</v>
@@ -10831,7 +10831,7 @@
         <v>40666.5</v>
       </c>
       <c r="C746">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D746">
         <v>1259.80001318</v>
@@ -10845,7 +10845,7 @@
         <v>40616.5</v>
       </c>
       <c r="C747">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D747">
         <v>1259.80001318</v>
@@ -10859,7 +10859,7 @@
         <v>40666.5</v>
       </c>
       <c r="C748">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D748">
         <v>1259.80001318</v>
@@ -10873,7 +10873,7 @@
         <v>40766.5</v>
       </c>
       <c r="C749">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D749">
         <v>1259.80001318</v>
@@ -10887,7 +10887,7 @@
         <v>40816.5</v>
       </c>
       <c r="C750">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D750">
         <v>1259.80001318</v>
@@ -10901,7 +10901,7 @@
         <v>40816.5</v>
       </c>
       <c r="C751">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D751">
         <v>1259.80001318</v>
@@ -10915,7 +10915,7 @@
         <v>40816.5</v>
       </c>
       <c r="C752">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D752">
         <v>1259.80001318</v>
@@ -10929,7 +10929,7 @@
         <v>40816.5</v>
       </c>
       <c r="C753">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D753">
         <v>1259.80001318</v>
@@ -10943,7 +10943,7 @@
         <v>40766.5</v>
       </c>
       <c r="C754">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D754">
         <v>1259.80001318</v>
@@ -10957,7 +10957,7 @@
         <v>41066.5</v>
       </c>
       <c r="C755">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D755">
         <v>1259.80001318</v>
@@ -10971,7 +10971,7 @@
         <v>41516.5</v>
       </c>
       <c r="C756">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D756">
         <v>1259.80001318</v>
@@ -10985,7 +10985,7 @@
         <v>42066.5</v>
       </c>
       <c r="C757">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D757">
         <v>1259.80001318</v>
@@ -10999,7 +10999,7 @@
         <v>42066.5</v>
       </c>
       <c r="C758">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D758">
         <v>1259.80001318</v>
@@ -11013,7 +11013,7 @@
         <v>42066.5</v>
       </c>
       <c r="C759">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D759">
         <v>1259.80001318</v>
@@ -11027,7 +11027,7 @@
         <v>42316.5</v>
       </c>
       <c r="C760">
-        <v>22520</v>
+        <v>24180</v>
       </c>
       <c r="D760">
         <v>1259.80001318</v>
@@ -11041,7 +11041,7 @@
         <v>42166.5</v>
       </c>
       <c r="C761">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D761">
         <v>1259.80001318</v>
@@ -11055,7 +11055,7 @@
         <v>42766.5</v>
       </c>
       <c r="C762">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D762">
         <v>1259.80001318</v>
@@ -11069,7 +11069,7 @@
         <v>43016.5</v>
       </c>
       <c r="C763">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D763">
         <v>1259.80001318</v>
@@ -11083,7 +11083,7 @@
         <v>42766.5</v>
       </c>
       <c r="C764">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D764">
         <v>1259.80001318</v>
@@ -11097,7 +11097,7 @@
         <v>42766.5</v>
       </c>
       <c r="C765">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D765">
         <v>1259.80001318</v>
@@ -11111,7 +11111,7 @@
         <v>42766.5</v>
       </c>
       <c r="C766">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D766">
         <v>1259.80001318</v>
@@ -11125,7 +11125,7 @@
         <v>42766.5</v>
       </c>
       <c r="C767">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D767">
         <v>1259.80001318</v>
@@ -11139,7 +11139,7 @@
         <v>43266.5</v>
       </c>
       <c r="C768">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D768">
         <v>1259.80001318</v>
@@ -11153,7 +11153,7 @@
         <v>43416.5</v>
       </c>
       <c r="C769">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D769">
         <v>1259.80001318</v>
@@ -11167,7 +11167,7 @@
         <v>43416.5</v>
       </c>
       <c r="C770">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D770">
         <v>1259.80001318</v>
@@ -11181,7 +11181,7 @@
         <v>43666.5</v>
       </c>
       <c r="C771">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D771">
         <v>1259.80001318</v>
@@ -11195,7 +11195,7 @@
         <v>43666.5</v>
       </c>
       <c r="C772">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D772">
         <v>1259.80001318</v>
@@ -11209,7 +11209,7 @@
         <v>43666.5</v>
       </c>
       <c r="C773">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D773">
         <v>1259.80001318</v>
@@ -11223,7 +11223,7 @@
         <v>43916.5</v>
       </c>
       <c r="C774">
-        <v>21560</v>
+        <v>24180</v>
       </c>
       <c r="D774">
         <v>1259.80001318</v>
@@ -11237,7 +11237,7 @@
         <v>44266.5</v>
       </c>
       <c r="C775">
-        <v>20250</v>
+        <v>24180</v>
       </c>
       <c r="D775">
         <v>1259.80001318</v>
@@ -11251,7 +11251,7 @@
         <v>44516.5</v>
       </c>
       <c r="C776">
-        <v>20250</v>
+        <v>24180</v>
       </c>
       <c r="D776">
         <v>1259.80001318</v>
@@ -11265,7 +11265,7 @@
         <v>44516.5</v>
       </c>
       <c r="C777">
-        <v>20250</v>
+        <v>24180</v>
       </c>
       <c r="D777">
         <v>1259.80001318</v>
@@ -11279,7 +11279,7 @@
         <v>44916.5</v>
       </c>
       <c r="C778">
-        <v>20250</v>
+        <v>24180</v>
       </c>
       <c r="D778">
         <v>1259.80001318</v>
@@ -11293,7 +11293,7 @@
         <v>44916.5</v>
       </c>
       <c r="C779">
-        <v>20250</v>
+        <v>24180</v>
       </c>
       <c r="D779">
         <v>1259.80001318</v>
@@ -11307,7 +11307,7 @@
         <v>44916.5</v>
       </c>
       <c r="C780">
-        <v>20250</v>
+        <v>24180</v>
       </c>
       <c r="D780">
         <v>1259.80001318</v>
@@ -11321,7 +11321,7 @@
         <v>45366.5</v>
       </c>
       <c r="C781">
-        <v>20250</v>
+        <v>24180</v>
       </c>
       <c r="D781">
         <v>1259.80001318</v>
@@ -11335,7 +11335,7 @@
         <v>45666.5</v>
       </c>
       <c r="C782">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D782">
         <v>1259.80001318</v>
@@ -11349,7 +11349,7 @@
         <v>46266.5</v>
       </c>
       <c r="C783">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D783">
         <v>1259.80001318</v>
@@ -11363,7 +11363,7 @@
         <v>46866.5</v>
       </c>
       <c r="C784">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D784">
         <v>1259.80001318</v>
@@ -11377,7 +11377,7 @@
         <v>47016.5</v>
       </c>
       <c r="C785">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D785">
         <v>1259.80001318</v>
@@ -11391,7 +11391,7 @@
         <v>47016.5</v>
       </c>
       <c r="C786">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D786">
         <v>1259.80001318</v>
@@ -11405,7 +11405,7 @@
         <v>47016.5</v>
       </c>
       <c r="C787">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D787">
         <v>1259.80001318</v>
@@ -11419,7 +11419,7 @@
         <v>46966.5</v>
       </c>
       <c r="C788">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D788">
         <v>1259.80001318</v>
@@ -11433,7 +11433,7 @@
         <v>47266.5</v>
       </c>
       <c r="C789">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D789">
         <v>1259.80001318</v>
@@ -11447,7 +11447,7 @@
         <v>47616.5</v>
       </c>
       <c r="C790">
-        <v>20250</v>
+        <v>22150</v>
       </c>
       <c r="D790">
         <v>1259.80001318</v>
@@ -11461,7 +11461,7 @@
         <v>47800</v>
       </c>
       <c r="C791">
-        <v>20500</v>
+        <v>22150</v>
       </c>
       <c r="D791">
         <v>1259.80001318</v>
@@ -11475,7 +11475,7 @@
         <v>47816.5</v>
       </c>
       <c r="C792">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D792">
         <v>1259.80001318</v>
@@ -11489,7 +11489,7 @@
         <v>47816.5</v>
       </c>
       <c r="C793">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D793">
         <v>1259.80001318</v>
@@ -11503,7 +11503,7 @@
         <v>47816.5</v>
       </c>
       <c r="C794">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D794">
         <v>1259.80001318</v>
@@ -11517,7 +11517,7 @@
         <v>47666.5</v>
       </c>
       <c r="C795">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D795">
         <v>1259.80001318</v>
@@ -11531,7 +11531,7 @@
         <v>47616.5</v>
       </c>
       <c r="C796">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D796">
         <v>1259.80001318</v>
@@ -11545,7 +11545,7 @@
         <v>47716.5</v>
       </c>
       <c r="C797">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D797">
         <v>1259.80001318</v>
@@ -11559,7 +11559,7 @@
         <v>47866.5</v>
       </c>
       <c r="C798">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D798">
         <v>1259.80001318</v>
@@ -11573,7 +11573,7 @@
         <v>47766.5</v>
       </c>
       <c r="C799">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D799">
         <v>1259.80001318</v>
@@ -11587,7 +11587,7 @@
         <v>47766.5</v>
       </c>
       <c r="C800">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D800">
         <v>1259.80001318</v>
@@ -11601,7 +11601,7 @@
         <v>47766.5</v>
       </c>
       <c r="C801">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D801">
         <v>1259.80001318</v>
@@ -11615,7 +11615,7 @@
         <v>47366.5</v>
       </c>
       <c r="C802">
-        <v>20500</v>
+        <v>23210</v>
       </c>
       <c r="D802">
         <v>1259.80001318</v>
@@ -11629,7 +11629,7 @@
         <v>46916.5</v>
       </c>
       <c r="C803">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D803">
         <v>1259.80001318</v>
@@ -11643,7 +11643,7 @@
         <v>46566.5</v>
       </c>
       <c r="C804">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D804">
         <v>1259.80001318</v>
@@ -11657,7 +11657,7 @@
         <v>46716.5</v>
       </c>
       <c r="C805">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D805">
         <v>1259.80001318</v>
@@ -11671,7 +11671,7 @@
         <v>46566.5</v>
       </c>
       <c r="C806">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D806">
         <v>1259.80001318</v>
@@ -11685,7 +11685,7 @@
         <v>46566.5</v>
       </c>
       <c r="C807">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D807">
         <v>1259.80001318</v>
@@ -11699,7 +11699,7 @@
         <v>46566.5</v>
       </c>
       <c r="C808">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D808">
         <v>1259.80001318</v>
@@ -11713,7 +11713,7 @@
         <v>46366.5</v>
       </c>
       <c r="C809">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D809">
         <v>1259.80001318</v>
@@ -11727,7 +11727,7 @@
         <v>46866.5</v>
       </c>
       <c r="C810">
-        <v>19300</v>
+        <v>21670</v>
       </c>
       <c r="D810">
         <v>1259.80001318</v>
@@ -11741,7 +11741,7 @@
         <v>47016.5</v>
       </c>
       <c r="C811">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D811">
         <v>1259.80001318</v>
@@ -11755,7 +11755,7 @@
         <v>47016.5</v>
       </c>
       <c r="C812">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D812">
         <v>1259.80001318</v>
@@ -11769,7 +11769,7 @@
         <v>47666.5</v>
       </c>
       <c r="C813">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D813">
         <v>1259.80001318</v>
@@ -11783,7 +11783,7 @@
         <v>47666.5</v>
       </c>
       <c r="C814">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D814">
         <v>1259.80001318</v>
@@ -11797,7 +11797,7 @@
         <v>47666.5</v>
       </c>
       <c r="C815">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D815">
         <v>1259.80001318</v>
@@ -11811,7 +11811,7 @@
         <v>48366.5</v>
       </c>
       <c r="C816">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D816">
         <v>1259.80001318</v>
@@ -11825,7 +11825,7 @@
         <v>48316.5</v>
       </c>
       <c r="C817">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D817">
         <v>1259.80001318</v>
@@ -11839,7 +11839,7 @@
         <v>47916.5</v>
       </c>
       <c r="C818">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D818">
         <v>1259.80001318</v>
@@ -11853,7 +11853,7 @@
         <v>47766.5</v>
       </c>
       <c r="C819">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D819">
         <v>1259.80001318</v>
@@ -11867,7 +11867,7 @@
         <v>48066.5</v>
       </c>
       <c r="C820">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D820">
         <v>1259.80001318</v>
@@ -11881,7 +11881,7 @@
         <v>48066.5</v>
       </c>
       <c r="C821">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D821">
         <v>1259.80001318</v>
@@ -11895,7 +11895,7 @@
         <v>48066.5</v>
       </c>
       <c r="C822">
-        <v>19430</v>
+        <v>21670</v>
       </c>
       <c r="D822">
         <v>1259.80001318</v>
@@ -11909,7 +11909,7 @@
         <v>48566.5</v>
       </c>
       <c r="C823">
-        <v>19430</v>
+        <v>22150</v>
       </c>
       <c r="D823">
         <v>1259.80001318</v>
@@ -11923,7 +11923,7 @@
         <v>48966.5</v>
       </c>
       <c r="C824">
-        <v>20140</v>
+        <v>22150</v>
       </c>
       <c r="D824">
         <v>1259.80001318</v>
@@ -11937,7 +11937,7 @@
         <v>49466.5</v>
       </c>
       <c r="C825">
-        <v>20140</v>
+        <v>22150</v>
       </c>
       <c r="D825">
         <v>1259.80001318</v>
@@ -11951,7 +11951,7 @@
         <v>49766.5</v>
       </c>
       <c r="C826">
-        <v>20140</v>
+        <v>22150</v>
       </c>
       <c r="D826">
         <v>1259.80001318</v>
@@ -11965,7 +11965,7 @@
         <v>49566.5</v>
       </c>
       <c r="C827">
-        <v>20140</v>
+        <v>22150</v>
       </c>
       <c r="D827">
         <v>1259.80001318</v>
@@ -11979,7 +11979,7 @@
         <v>49566.5</v>
       </c>
       <c r="C828">
-        <v>20140</v>
+        <v>22150</v>
       </c>
       <c r="D828">
         <v>1259.80001318</v>
@@ -11993,7 +11993,7 @@
         <v>49566.5</v>
       </c>
       <c r="C829">
-        <v>20140</v>
+        <v>22150</v>
       </c>
       <c r="D829">
         <v>1259.80001318</v>
@@ -12007,7 +12007,7 @@
         <v>49766.5</v>
       </c>
       <c r="C830">
-        <v>20140</v>
+        <v>22150</v>
       </c>
       <c r="D830">
         <v>1259.80001318</v>
